--- a/go_post_s10_adjusted_ratings.xlsx
+++ b/go_post_s10_adjusted_ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stube/Documents/developer/GoBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D24C4-6D5D-564F-B87F-929EF7EB08A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA5247-F855-1D47-9677-809C38726C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="31840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1739,7 +1739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R57" sqref="R57"/>
+      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,15 +1822,15 @@
         <v>2097.3421469311502</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G65" si="0">MAX(E2,$C2)</f>
+        <f>MAX(E2,$C2)</f>
         <v>2097.3421469311502</v>
       </c>
       <c r="H2" s="12">
-        <f t="shared" ref="H2:H65" si="1">MAX(F2,$C2*0.9)</f>
+        <f>MAX(F2,$C2*0.9)</f>
         <v>2097.3421469311502</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" ref="I2:I65" si="2">MAX(F2,$C2*0.95)</f>
+        <f>MAX(F2,$C2*0.95)</f>
         <v>2097.3421469311502</v>
       </c>
       <c r="K2" s="3">
@@ -1838,11 +1838,11 @@
         <v>689.34214693115018</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" ref="L2:L65" si="3">ABS(K2)</f>
+        <f>ABS(K2)</f>
         <v>689.34214693115018</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M65" si="4">(H2-$O$2)/$O$3</f>
+        <f>(H2-$O$2)/$O$3</f>
         <v>3.6534830571709995</v>
       </c>
       <c r="O2" s="3">
@@ -1870,27 +1870,27 @@
         <v>2033.8221283351299</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E3,$C3)</f>
         <v>2033.8221283351299</v>
       </c>
       <c r="H3" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F3,$C3*0.9)</f>
         <v>2033.8221283351299</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F3,$C3*0.95)</f>
         <v>2033.8221283351299</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K66" si="5">H3-$C3</f>
+        <f>H3-$C3</f>
         <v>832.82212833512995</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K3)</f>
         <v>832.82212833512995</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" si="4"/>
+        <f>(H3-$O$2)/$O$3</f>
         <v>3.4331568883808261</v>
       </c>
       <c r="O3" s="3">
@@ -1918,27 +1918,27 @@
         <v>1797.18772495044</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E4,$C4)</f>
         <v>1883</v>
       </c>
       <c r="H4" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F4,$C4*0.9)</f>
         <v>1797.18772495044</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F4,$C4*0.95)</f>
         <v>1797.18772495044</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="5"/>
+        <f>H4-$C4</f>
         <v>-85.812275049559958</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K4)</f>
         <v>85.812275049559958</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" si="4"/>
+        <f>(H4-$O$2)/$O$3</f>
         <v>2.6123644413055067</v>
       </c>
     </row>
@@ -1962,27 +1962,27 @@
         <v>1693.0198119906499</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E5,$C5)</f>
         <v>1750</v>
       </c>
       <c r="H5" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F5,$C5*0.9)</f>
         <v>1693.0198119906499</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F5,$C5*0.95)</f>
         <v>1693.0198119906499</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="5"/>
+        <f>H5-$C5</f>
         <v>-56.980188009350059</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K5)</f>
         <v>56.980188009350059</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="4"/>
+        <f>(H5-$O$2)/$O$3</f>
         <v>2.2510465815097795</v>
       </c>
     </row>
@@ -2006,27 +2006,27 @@
         <v>1687.47372640091</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E6,$C6)</f>
         <v>1880</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F6,$C6*0.9)</f>
         <v>1692</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F6,$C6*0.95)</f>
         <v>1786</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="5"/>
+        <f>H6-$C6</f>
         <v>-188</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K6)</f>
         <v>188</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="4"/>
+        <f>(H6-$O$2)/$O$3</f>
         <v>2.2475092514876458</v>
       </c>
     </row>
@@ -2050,27 +2050,27 @@
         <v>1686.7563861271601</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E7,$C7)</f>
         <v>1697</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F7,$C7*0.9)</f>
         <v>1686.7563861271601</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F7,$C7*0.95)</f>
         <v>1686.7563861271601</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="5"/>
+        <f>H7-$C7</f>
         <v>-10.243613872839887</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K7)</f>
         <v>10.243613872839887</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="4"/>
+        <f>(H7-$O$2)/$O$3</f>
         <v>2.229321200212576</v>
       </c>
     </row>
@@ -2094,27 +2094,27 @@
         <v>1631.3772983824099</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E8,$C8)</f>
         <v>1849</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F8,$C8*0.9)</f>
         <v>1664.1000000000001</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F8,$C8*0.95)</f>
         <v>1756.55</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="5"/>
+        <f>H8-$C8</f>
         <v>-184.89999999999986</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K8)</f>
         <v>184.89999999999986</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="4"/>
+        <f>(H8-$O$2)/$O$3</f>
         <v>2.1507350337667628</v>
       </c>
     </row>
@@ -2138,27 +2138,27 @@
         <v>1651.6920386199599</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E9,$C9)</f>
         <v>1667</v>
       </c>
       <c r="H9" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F9,$C9*0.9)</f>
         <v>1651.6920386199599</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F9,$C9*0.95)</f>
         <v>1651.6920386199599</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="5"/>
+        <f>H9-$C9</f>
         <v>-15.307961380040069</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K9)</f>
         <v>15.307961380040069</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="4"/>
+        <f>(H9-$O$2)/$O$3</f>
         <v>2.1076966554132026</v>
       </c>
     </row>
@@ -2182,27 +2182,27 @@
         <v>1639.48507583012</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E10,$C10)</f>
         <v>1727</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F10,$C10*0.9)</f>
         <v>1639.48507583012</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F10,$C10*0.95)</f>
         <v>1640.6499999999999</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="5"/>
+        <f>H10-$C10</f>
         <v>-87.514924169880032</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K10)</f>
         <v>87.514924169880032</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="4"/>
+        <f>(H10-$O$2)/$O$3</f>
         <v>2.0653554627703818</v>
       </c>
     </row>
@@ -2226,27 +2226,27 @@
         <v>1614.71652171145</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E11,$C11)</f>
         <v>1741</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F11,$C11*0.9)</f>
         <v>1614.71652171145</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F11,$C11*0.95)</f>
         <v>1653.9499999999998</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="5"/>
+        <f>H11-$C11</f>
         <v>-126.28347828854999</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K11)</f>
         <v>126.28347828854999</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="4"/>
+        <f>(H11-$O$2)/$O$3</f>
         <v>1.9794430094043725</v>
       </c>
     </row>
@@ -2270,27 +2270,27 @@
         <v>1593.37737347646</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E12,$C12)</f>
         <v>1593.37737347646</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F12,$C12*0.9)</f>
         <v>1593.37737347646</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F12,$C12*0.95)</f>
         <v>1593.37737347646</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="5"/>
+        <f>H12-$C12</f>
         <v>188.37737347645998</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K12)</f>
         <v>188.37737347645998</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="4"/>
+        <f>(H12-$O$2)/$O$3</f>
         <v>1.9054258274233282</v>
       </c>
     </row>
@@ -2314,27 +2314,27 @@
         <v>1563.09726530486</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E13,$C13)</f>
         <v>1563.09726530486</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F13,$C13*0.9)</f>
         <v>1563.09726530486</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F13,$C13*0.95)</f>
         <v>1563.09726530486</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="5"/>
+        <f>H13-$C13</f>
         <v>33.097265304860002</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K13)</f>
         <v>33.097265304860002</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="4"/>
+        <f>(H13-$O$2)/$O$3</f>
         <v>1.8003959428064706</v>
       </c>
     </row>
@@ -2358,27 +2358,27 @@
         <v>1552.32799364426</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E14,$C14)</f>
         <v>1686</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F14,$C14*0.9)</f>
         <v>1552.32799364426</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F14,$C14*0.95)</f>
         <v>1601.6999999999998</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="5"/>
+        <f>H14-$C14</f>
         <v>-133.67200635574</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K14)</f>
         <v>133.67200635574</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="4"/>
+        <f>(H14-$O$2)/$O$3</f>
         <v>1.7630415399255297</v>
       </c>
     </row>
@@ -2402,27 +2402,27 @@
         <v>1551.0048756517699</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E15,$C15)</f>
         <v>1551.0048756517699</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F15,$C15*0.9)</f>
         <v>1551.0048756517699</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F15,$C15*0.95)</f>
         <v>1551.0048756517699</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="5"/>
+        <f>H15-$C15</f>
         <v>133.00487565176991</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K15)</f>
         <v>133.00487565176991</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="4"/>
+        <f>(H15-$O$2)/$O$3</f>
         <v>1.758452159686259</v>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
         <v>1518.35232499925</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E16,$C16)</f>
         <v>1518.35232499925</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F16,$C16*0.9)</f>
         <v>1518.35232499925</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F16,$C16*0.95)</f>
         <v>1518.35232499925</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="5"/>
+        <f>H16-$C16</f>
         <v>309.35232499924996</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K16)</f>
         <v>309.35232499924996</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="4"/>
+        <f>(H16-$O$2)/$O$3</f>
         <v>1.6451931974644256</v>
       </c>
     </row>
@@ -2490,27 +2490,27 @@
         <v>1488.65780065736</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E17,$C17)</f>
         <v>1534</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F17,$C17*0.9)</f>
         <v>1488.65780065736</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F17,$C17*0.95)</f>
         <v>1488.65780065736</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="5"/>
+        <f>H17-$C17</f>
         <v>-45.342199342640015</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K17)</f>
         <v>45.342199342640015</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="4"/>
+        <f>(H17-$O$2)/$O$3</f>
         <v>1.5421944747482916</v>
       </c>
     </row>
@@ -2534,27 +2534,27 @@
         <v>1479.1263186702699</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E18,$C18)</f>
         <v>1479.1263186702699</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F18,$C18*0.9)</f>
         <v>1479.1263186702699</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F18,$C18*0.95)</f>
         <v>1479.1263186702699</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="5"/>
+        <f>H18-$C18</f>
         <v>222.12631867026994</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K18)</f>
         <v>222.12631867026994</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="4"/>
+        <f>(H18-$O$2)/$O$3</f>
         <v>1.5091334814500359</v>
       </c>
     </row>
@@ -2578,27 +2578,27 @@
         <v>1474.71492000028</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E19,$C19)</f>
         <v>1474.71492000028</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F19,$C19*0.9)</f>
         <v>1474.71492000028</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F19,$C19*0.95)</f>
         <v>1474.71492000028</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="5"/>
+        <f>H19-$C19</f>
         <v>189.71492000028002</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K19)</f>
         <v>189.71492000028002</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="4"/>
+        <f>(H19-$O$2)/$O$3</f>
         <v>1.4938320601115691</v>
       </c>
     </row>
@@ -2622,27 +2622,27 @@
         <v>1472.59623628962</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E20,$C20)</f>
         <v>1472.59623628962</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F20,$C20*0.9)</f>
         <v>1472.59623628962</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F20,$C20*0.95)</f>
         <v>1472.59623628962</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="5"/>
+        <f>H20-$C20</f>
         <v>414.59623628962004</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K20)</f>
         <v>414.59623628962004</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="4"/>
+        <f>(H20-$O$2)/$O$3</f>
         <v>1.486483172703071</v>
       </c>
     </row>
@@ -2666,27 +2666,27 @@
         <v>1446.31115653909</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E21,$C21)</f>
         <v>1451</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F21,$C21*0.9)</f>
         <v>1446.31115653909</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F21,$C21*0.95)</f>
         <v>1446.31115653909</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="5"/>
+        <f>H21-$C21</f>
         <v>-4.6888434609099932</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K21)</f>
         <v>4.6888434609099932</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="4"/>
+        <f>(H21-$O$2)/$O$3</f>
         <v>1.3953104834346628</v>
       </c>
     </row>
@@ -2710,27 +2710,27 @@
         <v>1441.2896176972699</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E22,$C22)</f>
         <v>1558</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F22,$C22*0.9)</f>
         <v>1441.2896176972699</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F22,$C22*0.95)</f>
         <v>1480.1</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="5"/>
+        <f>H22-$C22</f>
         <v>-116.71038230273007</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K22)</f>
         <v>116.71038230273007</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="4"/>
+        <f>(H22-$O$2)/$O$3</f>
         <v>1.3778927238227572</v>
       </c>
     </row>
@@ -2754,27 +2754,27 @@
         <v>1431.2689331736401</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E23,$C23)</f>
         <v>1513</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F23,$C23*0.9)</f>
         <v>1431.2689331736401</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F23,$C23*0.95)</f>
         <v>1437.35</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="5"/>
+        <f>H23-$C23</f>
         <v>-81.731066826359893</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K23)</f>
         <v>81.731066826359893</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="4"/>
+        <f>(H23-$O$2)/$O$3</f>
         <v>1.3431348777366625</v>
       </c>
     </row>
@@ -2798,27 +2798,27 @@
         <v>1430.4333654243901</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E24,$C24)</f>
         <v>1430.4333654243901</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F24,$C24*0.9)</f>
         <v>1430.4333654243901</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F24,$C24*0.95)</f>
         <v>1430.4333654243901</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="5"/>
+        <f>H24-$C24</f>
         <v>194.4333654243901</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K24)</f>
         <v>194.4333654243901</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="4"/>
+        <f>(H24-$O$2)/$O$3</f>
         <v>1.3402366191242443</v>
       </c>
     </row>
@@ -2842,27 +2842,27 @@
         <v>1422.10352011447</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E25,$C25)</f>
         <v>1504</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F25,$C25*0.9)</f>
         <v>1422.10352011447</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F25,$C25*0.95)</f>
         <v>1428.8</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="5"/>
+        <f>H25-$C25</f>
         <v>-81.89647988552997</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K25)</f>
         <v>81.89647988552997</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="4"/>
+        <f>(H25-$O$2)/$O$3</f>
         <v>1.3113436347656964</v>
       </c>
     </row>
@@ -2886,27 +2886,27 @@
         <v>1415.84115925226</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E26,$C26)</f>
         <v>1415.84115925226</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F26,$C26*0.9)</f>
         <v>1415.84115925226</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F26,$C26*0.95)</f>
         <v>1415.84115925226</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="5"/>
+        <f>H26-$C26</f>
         <v>239.84115925226001</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K26)</f>
         <v>239.84115925226001</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="4"/>
+        <f>(H26-$O$2)/$O$3</f>
         <v>1.289621947542533</v>
       </c>
     </row>
@@ -2930,27 +2930,27 @@
         <v>1406.2885420247301</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E27,$C27)</f>
         <v>1406.2885420247301</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F27,$C27*0.9)</f>
         <v>1406.2885420247301</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F27,$C27*0.95)</f>
         <v>1406.2885420247301</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="5"/>
+        <f>H27-$C27</f>
         <v>206.28854202473008</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K27)</f>
         <v>206.28854202473008</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="4"/>
+        <f>(H27-$O$2)/$O$3</f>
         <v>1.2564876443389041</v>
       </c>
     </row>
@@ -2974,27 +2974,27 @@
         <v>1406.0877460199299</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E28,$C28)</f>
         <v>1406.0877460199299</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F28,$C28*0.9)</f>
         <v>1406.0877460199299</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F28,$C28*0.95)</f>
         <v>1406.0877460199299</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="5"/>
+        <f>H28-$C28</f>
         <v>158.08774601992991</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K28)</f>
         <v>158.08774601992991</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="4"/>
+        <f>(H28-$O$2)/$O$3</f>
         <v>1.2557911613179</v>
       </c>
     </row>
@@ -3018,27 +3018,27 @@
         <v>1402.70050292261</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E29,$C29)</f>
         <v>1543</v>
       </c>
       <c r="H29" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F29,$C29*0.9)</f>
         <v>1402.70050292261</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F29,$C29*0.95)</f>
         <v>1465.85</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="5"/>
+        <f>H29-$C29</f>
         <v>-140.29949707739001</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K29)</f>
         <v>140.29949707739001</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="4"/>
+        <f>(H29-$O$2)/$O$3</f>
         <v>1.2440421361933982</v>
       </c>
     </row>
@@ -3062,27 +3062,27 @@
         <v>1375.7161252444901</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E30,$C30)</f>
         <v>1407</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F30,$C30*0.9)</f>
         <v>1375.7161252444901</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F30,$C30*0.95)</f>
         <v>1375.7161252444901</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="5"/>
+        <f>H30-$C30</f>
         <v>-31.283874755509942</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K30)</f>
         <v>31.283874755509942</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="4"/>
+        <f>(H30-$O$2)/$O$3</f>
         <v>1.150443855172433</v>
       </c>
     </row>
@@ -3106,27 +3106,27 @@
         <v>1350.29632921389</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E31,$C31)</f>
         <v>1350.29632921389</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F31,$C31*0.9)</f>
         <v>1350.29632921389</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F31,$C31*0.95)</f>
         <v>1350.29632921389</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="5"/>
+        <f>H31-$C31</f>
         <v>426.29632921388998</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K31)</f>
         <v>426.29632921388998</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="4"/>
+        <f>(H31-$O$2)/$O$3</f>
         <v>1.0622724976281408</v>
       </c>
     </row>
@@ -3150,27 +3150,27 @@
         <v>1345.8835353644399</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E32,$C32)</f>
         <v>1400</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F32,$C32*0.9)</f>
         <v>1345.8835353644399</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F32,$C32*0.95)</f>
         <v>1345.8835353644399</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="5"/>
+        <f>H32-$C32</f>
         <v>-54.116464635560078</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K32)</f>
         <v>54.116464635560078</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="4"/>
+        <f>(H32-$O$2)/$O$3</f>
         <v>1.0469662369563109</v>
       </c>
     </row>
@@ -3194,27 +3194,27 @@
         <v>1345.7323455170001</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E33,$C33)</f>
         <v>1452</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F33,$C33*0.9)</f>
         <v>1345.7323455170001</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F33,$C33*0.95)</f>
         <v>1379.3999999999999</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="5"/>
+        <f>H33-$C33</f>
         <v>-106.26765448299989</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K33)</f>
         <v>106.26765448299989</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="4"/>
+        <f>(H33-$O$2)/$O$3</f>
         <v>1.0464418183465143</v>
       </c>
     </row>
@@ -3238,27 +3238,27 @@
         <v>1336.11695091703</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E34,$C34)</f>
         <v>1336.11695091703</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F34,$C34*0.9)</f>
         <v>1336.11695091703</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F34,$C34*0.95)</f>
         <v>1336.11695091703</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" si="5"/>
+        <f>H34-$C34</f>
         <v>142.11695091702995</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K34)</f>
         <v>142.11695091702995</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" si="4"/>
+        <f>(H34-$O$2)/$O$3</f>
         <v>1.0130897649239436</v>
       </c>
     </row>
@@ -3282,27 +3282,27 @@
         <v>1332.32795840781</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E35,$C35)</f>
         <v>1352</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F35,$C35*0.9)</f>
         <v>1332.32795840781</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F35,$C35*0.95)</f>
         <v>1332.32795840781</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="5"/>
+        <f>H35-$C35</f>
         <v>-19.672041592189998</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K35)</f>
         <v>19.672041592189998</v>
       </c>
       <c r="M35" s="4">
-        <f t="shared" si="4"/>
+        <f>(H35-$O$2)/$O$3</f>
         <v>0.99994722779025003</v>
       </c>
     </row>
@@ -3326,27 +3326,27 @@
         <v>1321.59300093456</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E36,$C36)</f>
         <v>1321.59300093456</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F36,$C36*0.9)</f>
         <v>1321.59300093456</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F36,$C36*0.95)</f>
         <v>1321.59300093456</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="5"/>
+        <f>H36-$C36</f>
         <v>313.59300093456</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K36)</f>
         <v>313.59300093456</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="4"/>
+        <f>(H36-$O$2)/$O$3</f>
         <v>0.96271184744112015</v>
       </c>
     </row>
@@ -3370,27 +3370,27 @@
         <v>1316.57098770828</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E37,$C37)</f>
         <v>1404</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F37,$C37*0.9)</f>
         <v>1316.57098770828</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F37,$C37*0.95)</f>
         <v>1333.8</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="5"/>
+        <f>H37-$C37</f>
         <v>-87.429012291720028</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K37)</f>
         <v>87.429012291720028</v>
       </c>
       <c r="M37" s="4">
-        <f t="shared" si="4"/>
+        <f>(H37-$O$2)/$O$3</f>
         <v>0.94529244237455456</v>
       </c>
     </row>
@@ -3414,27 +3414,27 @@
         <v>1303.89139355981</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E38,$C38)</f>
         <v>1303.89139355981</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F38,$C38*0.9)</f>
         <v>1303.89139355981</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F38,$C38*0.95)</f>
         <v>1303.89139355981</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="5"/>
+        <f>H38-$C38</f>
         <v>33.891393559810012</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K38)</f>
         <v>33.891393559810012</v>
       </c>
       <c r="M38" s="4">
-        <f t="shared" si="4"/>
+        <f>(H38-$O$2)/$O$3</f>
         <v>0.90131187589654471</v>
       </c>
     </row>
@@ -3458,27 +3458,27 @@
         <v>1300.64295418201</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E39,$C39)</f>
         <v>1300.64295418201</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F39,$C39*0.9)</f>
         <v>1300.64295418201</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F39,$C39*0.95)</f>
         <v>1300.64295418201</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="5"/>
+        <f>H39-$C39</f>
         <v>36.642954182010044</v>
       </c>
       <c r="L39" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K39)</f>
         <v>36.642954182010044</v>
       </c>
       <c r="M39" s="4">
-        <f t="shared" si="4"/>
+        <f>(H39-$O$2)/$O$3</f>
         <v>0.89004430673524337</v>
       </c>
     </row>
@@ -3502,27 +3502,27 @@
         <v>1289.8521474919601</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E40,$C40)</f>
         <v>1289.8521474919601</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F40,$C40*0.9)</f>
         <v>1289.8521474919601</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F40,$C40*0.95)</f>
         <v>1289.8521474919601</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="5"/>
+        <f>H40-$C40</f>
         <v>5.8521474919600678</v>
       </c>
       <c r="L40" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K40)</f>
         <v>5.8521474919600678</v>
       </c>
       <c r="M40" s="4">
-        <f t="shared" si="4"/>
+        <f>(H40-$O$2)/$O$3</f>
         <v>0.85261520723678941</v>
       </c>
     </row>
@@ -3546,27 +3546,27 @@
         <v>1275.8522898689801</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E41,$C41)</f>
         <v>1275.8522898689801</v>
       </c>
       <c r="H41" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F41,$C41*0.9)</f>
         <v>1275.8522898689801</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F41,$C41*0.95)</f>
         <v>1275.8522898689801</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" si="5"/>
+        <f>H41-$C41</f>
         <v>199.85228986898005</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K41)</f>
         <v>199.85228986898005</v>
       </c>
       <c r="M41" s="4">
-        <f t="shared" si="4"/>
+        <f>(H41-$O$2)/$O$3</f>
         <v>0.80405516172898861</v>
       </c>
     </row>
@@ -3590,27 +3590,27 @@
         <v>1274.2663861937201</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E42,$C42)</f>
         <v>1393</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F42,$C42*0.9)</f>
         <v>1274.2663861937201</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F42,$C42*0.95)</f>
         <v>1323.35</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="5"/>
+        <f>H42-$C42</f>
         <v>-118.73361380627989</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K42)</f>
         <v>118.73361380627989</v>
       </c>
       <c r="M42" s="4">
-        <f t="shared" si="4"/>
+        <f>(H42-$O$2)/$O$3</f>
         <v>0.79855428045465338</v>
       </c>
     </row>
@@ -3634,27 +3634,27 @@
         <v>1270.86865348273</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E43,$C43)</f>
         <v>1365</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F43,$C43*0.9)</f>
         <v>1270.86865348273</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F43,$C43*0.95)</f>
         <v>1296.75</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="5"/>
+        <f>H43-$C43</f>
         <v>-94.131346517270003</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K43)</f>
         <v>94.131346517270003</v>
       </c>
       <c r="M43" s="4">
-        <f t="shared" si="4"/>
+        <f>(H43-$O$2)/$O$3</f>
         <v>0.78676887095175996</v>
       </c>
     </row>
@@ -3678,27 +3678,27 @@
         <v>1179.8504779836201</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E44,$C44)</f>
         <v>1411</v>
       </c>
       <c r="H44" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F44,$C44*0.9)</f>
         <v>1269.9000000000001</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F44,$C44*0.95)</f>
         <v>1340.45</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="5"/>
+        <f>H44-$C44</f>
         <v>-141.09999999999991</v>
       </c>
       <c r="L44" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K44)</f>
         <v>141.09999999999991</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" si="4"/>
+        <f>(H44-$O$2)/$O$3</f>
         <v>0.78340898983943752</v>
       </c>
     </row>
@@ -3722,27 +3722,27 @@
         <v>1269.0677264847</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E45,$C45)</f>
         <v>1269.0677264847</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F45,$C45*0.9)</f>
         <v>1269.0677264847</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F45,$C45*0.95)</f>
         <v>1269.0677264847</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="5"/>
+        <f>H45-$C45</f>
         <v>273.06772648469996</v>
       </c>
       <c r="L45" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K45)</f>
         <v>273.06772648469996</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="4"/>
+        <f>(H45-$O$2)/$O$3</f>
         <v>0.78052215763968913</v>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
         <v>1267.0144169375501</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E46,$C46)</f>
         <v>1267.0144169375501</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F46,$C46*0.9)</f>
         <v>1267.0144169375501</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F46,$C46*0.95)</f>
         <v>1267.0144169375501</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="5"/>
+        <f>H46-$C46</f>
         <v>282.0144169375501</v>
       </c>
       <c r="L46" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K46)</f>
         <v>282.0144169375501</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="4"/>
+        <f>(H46-$O$2)/$O$3</f>
         <v>0.77340002770548655</v>
       </c>
     </row>
@@ -3810,27 +3810,27 @@
         <v>1259.37537415207</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E47,$C47)</f>
         <v>1259.37537415207</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F47,$C47*0.9)</f>
         <v>1259.37537415207</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F47,$C47*0.95)</f>
         <v>1259.37537415207</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="5"/>
+        <f>H47-$C47</f>
         <v>68.37537415206998</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K47)</f>
         <v>68.37537415206998</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="4"/>
+        <f>(H47-$O$2)/$O$3</f>
         <v>0.74690316785956545</v>
       </c>
     </row>
@@ -3854,27 +3854,27 @@
         <v>1167.8591003141801</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E48,$C48)</f>
         <v>1384</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F48,$C48*0.9)</f>
         <v>1245.6000000000001</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F48,$C48*0.95)</f>
         <v>1314.8</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="5"/>
+        <f>H48-$C48</f>
         <v>-138.39999999999986</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K48)</f>
         <v>138.39999999999986</v>
       </c>
       <c r="M48" s="4">
-        <f t="shared" si="4"/>
+        <f>(H48-$O$2)/$O$3</f>
         <v>0.69912176795350667</v>
       </c>
     </row>
@@ -3898,27 +3898,27 @@
         <v>1240.9610071930899</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E49,$C49)</f>
         <v>1240.9610071930899</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F49,$C49*0.9)</f>
         <v>1240.9610071930899</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F49,$C49*0.95)</f>
         <v>1240.9610071930899</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="5"/>
+        <f>H49-$C49</f>
         <v>100.96100719308993</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K49)</f>
         <v>100.96100719308993</v>
       </c>
       <c r="M49" s="4">
-        <f t="shared" si="4"/>
+        <f>(H49-$O$2)/$O$3</f>
         <v>0.6830309113262113</v>
       </c>
     </row>
@@ -3942,27 +3942,27 @@
         <v>1238.3029077907499</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E50,$C50)</f>
         <v>1266</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F50,$C50*0.9)</f>
         <v>1238.3029077907499</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F50,$C50*0.95)</f>
         <v>1238.3029077907499</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="5"/>
+        <f>H50-$C50</f>
         <v>-27.697092209250059</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K50)</f>
         <v>27.697092209250059</v>
       </c>
       <c r="M50" s="4">
-        <f t="shared" si="4"/>
+        <f>(H50-$O$2)/$O$3</f>
         <v>0.67381100128012517</v>
       </c>
     </row>
@@ -3986,27 +3986,27 @@
         <v>1229.28451841176</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E51,$C51)</f>
         <v>1372</v>
       </c>
       <c r="H51" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F51,$C51*0.9)</f>
         <v>1234.8</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F51,$C51*0.95)</f>
         <v>1303.3999999999999</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="5"/>
+        <f>H51-$C51</f>
         <v>-137.20000000000005</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K51)</f>
         <v>137.20000000000005</v>
       </c>
       <c r="M51" s="4">
-        <f t="shared" si="4"/>
+        <f>(H51-$O$2)/$O$3</f>
         <v>0.66166078044864785</v>
       </c>
     </row>
@@ -4030,27 +4030,27 @@
         <v>1167.71071034586</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E52,$C52)</f>
         <v>1361</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F52,$C52*0.9)</f>
         <v>1224.9000000000001</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F52,$C52*0.95)</f>
         <v>1292.95</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="5"/>
+        <f>H52-$C52</f>
         <v>-136.09999999999991</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K52)</f>
         <v>136.09999999999991</v>
       </c>
       <c r="M52" s="4">
-        <f t="shared" si="4"/>
+        <f>(H52-$O$2)/$O$3</f>
         <v>0.6273215419025282</v>
       </c>
     </row>
@@ -4074,27 +4074,27 @@
         <v>1209.12110846831</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E53,$C53)</f>
         <v>1272</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F53,$C53*0.9)</f>
         <v>1209.12110846831</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F53,$C53*0.95)</f>
         <v>1209.12110846831</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="5"/>
+        <f>H53-$C53</f>
         <v>-62.878891531689987</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K53)</f>
         <v>62.878891531689987</v>
       </c>
       <c r="M53" s="4">
-        <f t="shared" si="4"/>
+        <f>(H53-$O$2)/$O$3</f>
         <v>0.57259072167019909</v>
       </c>
     </row>
@@ -4118,27 +4118,27 @@
         <v>1208.31488349611</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E54,$C54)</f>
         <v>1250</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F54,$C54*0.9)</f>
         <v>1208.31488349611</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F54,$C54*0.95)</f>
         <v>1208.31488349611</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="5"/>
+        <f>H54-$C54</f>
         <v>-41.685116503889958</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K54)</f>
         <v>41.685116503889958</v>
       </c>
       <c r="M54" s="4">
-        <f t="shared" si="4"/>
+        <f>(H54-$O$2)/$O$3</f>
         <v>0.56979424170633908</v>
       </c>
     </row>
@@ -4162,27 +4162,27 @@
         <v>1204.3391749826901</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E55,$C55)</f>
         <v>1204.3391749826901</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F55,$C55*0.9)</f>
         <v>1204.3391749826901</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F55,$C55*0.95)</f>
         <v>1204.3391749826901</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f>H55-$C55</f>
         <v>60.33917498269011</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K55)</f>
         <v>60.33917498269011</v>
       </c>
       <c r="M55" s="4">
-        <f t="shared" si="4"/>
+        <f>(H55-$O$2)/$O$3</f>
         <v>0.55600405958187771</v>
       </c>
     </row>
@@ -4206,27 +4206,27 @@
         <v>1202.97446898212</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E56,$C56)</f>
         <v>1298</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F56,$C56*0.9)</f>
         <v>1202.97446898212</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F56,$C56*0.95)</f>
         <v>1233.0999999999999</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="5"/>
+        <f>H56-$C56</f>
         <v>-95.025531017879985</v>
       </c>
       <c r="L56" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K56)</f>
         <v>95.025531017879985</v>
       </c>
       <c r="M56" s="4">
-        <f t="shared" si="4"/>
+        <f>(H56-$O$2)/$O$3</f>
         <v>0.55127042676380722</v>
       </c>
     </row>
@@ -4250,27 +4250,27 @@
         <v>1196.97602167077</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E57,$C57)</f>
         <v>1196.97602167077</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F57,$C57*0.9)</f>
         <v>1196.97602167077</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F57,$C57*0.95)</f>
         <v>1196.97602167077</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="5"/>
+        <f>H57-$C57</f>
         <v>65.976021670770024</v>
       </c>
       <c r="L57" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K57)</f>
         <v>65.976021670770024</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" si="4"/>
+        <f>(H57-$O$2)/$O$3</f>
         <v>0.53046415271019309</v>
       </c>
     </row>
@@ -4294,27 +4294,27 @@
         <v>1194.90828443805</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E58,$C58)</f>
         <v>1216</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F58,$C58*0.9)</f>
         <v>1194.90828443805</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F58,$C58*0.95)</f>
         <v>1194.90828443805</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="5"/>
+        <f>H58-$C58</f>
         <v>-21.091715561949968</v>
       </c>
       <c r="L58" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K58)</f>
         <v>21.091715561949968</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="4"/>
+        <f>(H58-$O$2)/$O$3</f>
         <v>0.52329197876220668</v>
       </c>
     </row>
@@ -4338,27 +4338,27 @@
         <v>922.89547512599904</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E59,$C59)</f>
         <v>1323</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F59,$C59*0.9)</f>
         <v>1190.7</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F59,$C59*0.95)</f>
         <v>1256.8499999999999</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="5"/>
+        <f>H59-$C59</f>
         <v>-132.29999999999995</v>
       </c>
       <c r="L59" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K59)</f>
         <v>132.29999999999995</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="4"/>
+        <f>(H59-$O$2)/$O$3</f>
         <v>0.50869508147047704</v>
       </c>
     </row>
@@ -4382,27 +4382,27 @@
         <v>1174.4818536871601</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E60,$C60)</f>
         <v>1222</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F60,$C60*0.9)</f>
         <v>1174.4818536871601</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F60,$C60*0.95)</f>
         <v>1174.4818536871601</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="5"/>
+        <f>H60-$C60</f>
         <v>-47.518146312839917</v>
       </c>
       <c r="L60" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K60)</f>
         <v>47.518146312839917</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="4"/>
+        <f>(H60-$O$2)/$O$3</f>
         <v>0.45244065773184189</v>
       </c>
     </row>
@@ -4426,27 +4426,27 @@
         <v>1172.9965453975601</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E61,$C61)</f>
         <v>1172.9965453975601</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F61,$C61*0.9)</f>
         <v>1172.9965453975601</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F61,$C61*0.95)</f>
         <v>1172.9965453975601</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="5"/>
+        <f>H61-$C61</f>
         <v>224.99654539756011</v>
       </c>
       <c r="L61" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K61)</f>
         <v>224.99654539756011</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="4"/>
+        <f>(H61-$O$2)/$O$3</f>
         <v>0.44728870261354864</v>
       </c>
     </row>
@@ -4470,27 +4470,27 @@
         <v>1171.1447630416001</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E62,$C62)</f>
         <v>1189</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F62,$C62*0.9)</f>
         <v>1171.1447630416001</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F62,$C62*0.95)</f>
         <v>1171.1447630416001</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="5"/>
+        <f>H62-$C62</f>
         <v>-17.855236958399928</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K62)</f>
         <v>17.855236958399928</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="4"/>
+        <f>(H62-$O$2)/$O$3</f>
         <v>0.44086559190073976</v>
       </c>
     </row>
@@ -4514,27 +4514,27 @@
         <v>1162.7215391024399</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E63,$C63)</f>
         <v>1233</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F63,$C63*0.9)</f>
         <v>1162.7215391024399</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F63,$C63*0.95)</f>
         <v>1171.3499999999999</v>
       </c>
       <c r="K63" s="3">
-        <f t="shared" si="5"/>
+        <f>H63-$C63</f>
         <v>-70.27846089756008</v>
       </c>
       <c r="L63" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K63)</f>
         <v>70.27846089756008</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="4"/>
+        <f>(H63-$O$2)/$O$3</f>
         <v>0.41164871349930449</v>
       </c>
     </row>
@@ -4558,27 +4558,27 @@
         <v>1156.39315514688</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E64,$C64)</f>
         <v>1210</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F64,$C64*0.9)</f>
         <v>1156.39315514688</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F64,$C64*0.95)</f>
         <v>1156.39315514688</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="5"/>
+        <f>H64-$C64</f>
         <v>-53.606844853120037</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K64)</f>
         <v>53.606844853120037</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="4"/>
+        <f>(H64-$O$2)/$O$3</f>
         <v>0.38969801791734365</v>
       </c>
     </row>
@@ -4602,27 +4602,27 @@
         <v>1151.94510305005</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f>MAX(E65,$C65)</f>
         <v>1199</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="1"/>
+        <f>MAX(F65,$C65*0.9)</f>
         <v>1151.94510305005</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="2"/>
+        <f>MAX(F65,$C65*0.95)</f>
         <v>1151.94510305005</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="5"/>
+        <f>H65-$C65</f>
         <v>-47.054896949950034</v>
       </c>
       <c r="L65" s="3">
-        <f t="shared" si="3"/>
+        <f>ABS(K65)</f>
         <v>47.054896949950034</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="4"/>
+        <f>(H65-$O$2)/$O$3</f>
         <v>0.37426946013768558</v>
       </c>
     </row>
@@ -4646,27 +4646,27 @@
         <v>1146.1057529872201</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G129" si="6">MAX(E66,$C66)</f>
+        <f>MAX(E66,$C66)</f>
         <v>1146.1057529872201</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" ref="H66:H129" si="7">MAX(F66,$C66*0.9)</f>
+        <f>MAX(F66,$C66*0.9)</f>
         <v>1146.1057529872201</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" ref="I66:I129" si="8">MAX(F66,$C66*0.95)</f>
+        <f>MAX(F66,$C66*0.95)</f>
         <v>1146.1057529872201</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="5"/>
+        <f>H66-$C66</f>
         <v>287.10575298722006</v>
       </c>
       <c r="L66" s="3">
-        <f t="shared" ref="L66:L129" si="9">ABS(K66)</f>
+        <f>ABS(K66)</f>
         <v>287.10575298722006</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" ref="M66:M129" si="10">(H66-$O$2)/$O$3</f>
+        <f>(H66-$O$2)/$O$3</f>
         <v>0.3540150323839667</v>
       </c>
     </row>
@@ -4690,27 +4690,27 @@
         <v>1142.7574757126699</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E67,$C67)</f>
         <v>1169</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F67,$C67*0.9)</f>
         <v>1142.7574757126699</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F67,$C67*0.95)</f>
         <v>1142.7574757126699</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" ref="K67:K130" si="11">H67-$C67</f>
+        <f>H67-$C67</f>
         <v>-26.24252428733007</v>
       </c>
       <c r="L67" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K67)</f>
         <v>26.24252428733007</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="10"/>
+        <f>(H67-$O$2)/$O$3</f>
         <v>0.34240116450019603</v>
       </c>
     </row>
@@ -4734,27 +4734,27 @@
         <v>1137.27938360194</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E68,$C68)</f>
         <v>1137.27938360194</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F68,$C68*0.9)</f>
         <v>1137.27938360194</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F68,$C68*0.95)</f>
         <v>1137.27938360194</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="11"/>
+        <f>H68-$C68</f>
         <v>108.27938360194003</v>
       </c>
       <c r="L68" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K68)</f>
         <v>108.27938360194003</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="10"/>
+        <f>(H68-$O$2)/$O$3</f>
         <v>0.32339979967514831</v>
       </c>
     </row>
@@ -4778,27 +4778,27 @@
         <v>1136.3019125698099</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E69,$C69)</f>
         <v>1150</v>
       </c>
       <c r="H69" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F69,$C69*0.9)</f>
         <v>1136.3019125698099</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F69,$C69*0.95)</f>
         <v>1136.3019125698099</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="11"/>
+        <f>H69-$C69</f>
         <v>-13.698087430190071</v>
       </c>
       <c r="L69" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K69)</f>
         <v>13.698087430190071</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="10"/>
+        <f>(H69-$O$2)/$O$3</f>
         <v>0.32000933392320513</v>
       </c>
     </row>
@@ -4822,27 +4822,27 @@
         <v>1136.11098655865</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E70,$C70)</f>
         <v>1234</v>
       </c>
       <c r="H70" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F70,$C70*0.9)</f>
         <v>1136.11098655865</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F70,$C70*0.95)</f>
         <v>1172.3</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="11"/>
+        <f>H70-$C70</f>
         <v>-97.889013441350016</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K70)</f>
         <v>97.889013441350016</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="10"/>
+        <f>(H70-$O$2)/$O$3</f>
         <v>0.31934708606038892</v>
       </c>
     </row>
@@ -4866,27 +4866,27 @@
         <v>1127.05406610517</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E71,$C71)</f>
         <v>1199</v>
       </c>
       <c r="H71" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F71,$C71*0.9)</f>
         <v>1127.05406610517</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F71,$C71*0.95)</f>
         <v>1139.05</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="11"/>
+        <f>H71-$C71</f>
         <v>-71.945933894829977</v>
       </c>
       <c r="L71" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K71)</f>
         <v>71.945933894829977</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="10"/>
+        <f>(H71-$O$2)/$O$3</f>
         <v>0.28793216162147156</v>
       </c>
     </row>
@@ -4910,27 +4910,27 @@
         <v>1124.25308571596</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E72,$C72)</f>
         <v>1124.25308571596</v>
       </c>
       <c r="H72" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F72,$C72*0.9)</f>
         <v>1124.25308571596</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F72,$C72*0.95)</f>
         <v>1124.25308571596</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="11"/>
+        <f>H72-$C72</f>
         <v>159.25308571595997</v>
       </c>
       <c r="L72" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K72)</f>
         <v>159.25308571595997</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="10"/>
+        <f>(H72-$O$2)/$O$3</f>
         <v>0.27821665316206873</v>
       </c>
     </row>
@@ -4954,27 +4954,27 @@
         <v>1117.93756317214</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E73,$C73)</f>
         <v>1164</v>
       </c>
       <c r="H73" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F73,$C73*0.9)</f>
         <v>1117.93756317214</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F73,$C73*0.95)</f>
         <v>1117.93756317214</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="11"/>
+        <f>H73-$C73</f>
         <v>-46.062436827859983</v>
       </c>
       <c r="L73" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K73)</f>
         <v>46.062436827859983</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="10"/>
+        <f>(H73-$O$2)/$O$3</f>
         <v>0.25631056880089376</v>
       </c>
     </row>
@@ -4998,27 +4998,27 @@
         <v>1115.54450170471</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E74,$C74)</f>
         <v>1189</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F74,$C74*0.9)</f>
         <v>1115.54450170471</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F74,$C74*0.95)</f>
         <v>1129.55</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="11"/>
+        <f>H74-$C74</f>
         <v>-73.455498295289999</v>
       </c>
       <c r="L74" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K74)</f>
         <v>73.455498295289999</v>
       </c>
       <c r="M74" s="4">
-        <f t="shared" si="10"/>
+        <f>(H74-$O$2)/$O$3</f>
         <v>0.24800997197406471</v>
       </c>
     </row>
@@ -5042,27 +5042,27 @@
         <v>1114.93744054329</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E75,$C75)</f>
         <v>1114.93744054329</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F75,$C75*0.9)</f>
         <v>1114.93744054329</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F75,$C75*0.95)</f>
         <v>1114.93744054329</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="11"/>
+        <f>H75-$C75</f>
         <v>22.937440543289995</v>
       </c>
       <c r="L75" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K75)</f>
         <v>22.937440543289995</v>
       </c>
       <c r="M75" s="4">
-        <f t="shared" si="10"/>
+        <f>(H75-$O$2)/$O$3</f>
         <v>0.24590431358678327</v>
       </c>
     </row>
@@ -5086,27 +5086,27 @@
         <v>1113.9156022033201</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E76,$C76)</f>
         <v>1113.9156022033201</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F76,$C76*0.9)</f>
         <v>1113.9156022033201</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F76,$C76*0.95)</f>
         <v>1113.9156022033201</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="11"/>
+        <f>H76-$C76</f>
         <v>21.915602203320077</v>
       </c>
       <c r="L76" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K76)</f>
         <v>21.915602203320077</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="10"/>
+        <f>(H76-$O$2)/$O$3</f>
         <v>0.24235995494922788</v>
       </c>
     </row>
@@ -5130,27 +5130,27 @@
         <v>1103.3266170847701</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E77,$C77)</f>
         <v>1236</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F77,$C77*0.9)</f>
         <v>1112.4000000000001</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F77,$C77*0.95)</f>
         <v>1174.2</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="11"/>
+        <f>H77-$C77</f>
         <v>-123.59999999999991</v>
       </c>
       <c r="L77" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K77)</f>
         <v>123.59999999999991</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="10"/>
+        <f>(H77-$O$2)/$O$3</f>
         <v>0.23710292206025516</v>
       </c>
     </row>
@@ -5174,27 +5174,27 @@
         <v>1110.0232513353001</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E78,$C78)</f>
         <v>1110.0232513353001</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F78,$C78*0.9)</f>
         <v>1110.0232513353001</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F78,$C78*0.95)</f>
         <v>1110.0232513353001</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="11"/>
+        <f>H78-$C78</f>
         <v>283.02325133530007</v>
       </c>
       <c r="L78" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K78)</f>
         <v>283.02325133530007</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" si="10"/>
+        <f>(H78-$O$2)/$O$3</f>
         <v>0.22885890798335554</v>
       </c>
     </row>
@@ -5218,27 +5218,27 @@
         <v>1109.08951202245</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E79,$C79)</f>
         <v>1109.08951202245</v>
       </c>
       <c r="H79" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F79,$C79*0.9)</f>
         <v>1109.08951202245</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F79,$C79*0.95)</f>
         <v>1109.08951202245</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="11"/>
+        <f>H79-$C79</f>
         <v>249.08951202244998</v>
       </c>
       <c r="L79" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K79)</f>
         <v>249.08951202244998</v>
       </c>
       <c r="M79" s="4">
-        <f t="shared" si="10"/>
+        <f>(H79-$O$2)/$O$3</f>
         <v>0.22562013050821922</v>
       </c>
     </row>
@@ -5262,27 +5262,27 @@
         <v>1107.24996078601</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E80,$C80)</f>
         <v>1151</v>
       </c>
       <c r="H80" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F80,$C80*0.9)</f>
         <v>1107.24996078601</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F80,$C80*0.95)</f>
         <v>1107.24996078601</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="11"/>
+        <f>H80-$C80</f>
         <v>-43.750039213990021</v>
       </c>
       <c r="L80" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K80)</f>
         <v>43.750039213990021</v>
       </c>
       <c r="M80" s="4">
-        <f t="shared" si="10"/>
+        <f>(H80-$O$2)/$O$3</f>
         <v>0.21923944477832799</v>
       </c>
     </row>
@@ -5306,27 +5306,27 @@
         <v>1104.2340521301301</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E81,$C81)</f>
         <v>1164</v>
       </c>
       <c r="H81" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F81,$C81*0.9)</f>
         <v>1104.2340521301301</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F81,$C81*0.95)</f>
         <v>1105.8</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="11"/>
+        <f>H81-$C81</f>
         <v>-59.765947869869933</v>
       </c>
       <c r="L81" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K81)</f>
         <v>59.765947869869933</v>
       </c>
       <c r="M81" s="4">
-        <f t="shared" si="10"/>
+        <f>(H81-$O$2)/$O$3</f>
         <v>0.20877843399372509</v>
       </c>
     </row>
@@ -5350,27 +5350,27 @@
         <v>1101.1811678689901</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E82,$C82)</f>
         <v>1101.1811678689901</v>
       </c>
       <c r="H82" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F82,$C82*0.9)</f>
         <v>1101.1811678689901</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F82,$C82*0.95)</f>
         <v>1101.1811678689901</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="11"/>
+        <f>H82-$C82</f>
         <v>146.18116786899009</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K82)</f>
         <v>146.18116786899009</v>
       </c>
       <c r="M82" s="4">
-        <f t="shared" si="10"/>
+        <f>(H82-$O$2)/$O$3</f>
         <v>0.19818916925665631</v>
       </c>
     </row>
@@ -5394,27 +5394,27 @@
         <v>1068.42246213819</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E83,$C83)</f>
         <v>1221</v>
       </c>
       <c r="H83" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F83,$C83*0.9)</f>
         <v>1098.9000000000001</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F83,$C83*0.95)</f>
         <v>1159.95</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="11"/>
+        <f>H83-$C83</f>
         <v>-122.09999999999991</v>
       </c>
       <c r="L83" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K83)</f>
         <v>122.09999999999991</v>
       </c>
       <c r="M83" s="4">
-        <f t="shared" si="10"/>
+        <f>(H83-$O$2)/$O$3</f>
         <v>0.19027668767918238</v>
       </c>
     </row>
@@ -5438,27 +5438,27 @@
         <v>1090.9347488129099</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E84,$C84)</f>
         <v>1143</v>
       </c>
       <c r="H84" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F84,$C84*0.9)</f>
         <v>1090.9347488129099</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F84,$C84*0.95)</f>
         <v>1090.9347488129099</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="11"/>
+        <f>H84-$C84</f>
         <v>-52.065251187090098</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K84)</f>
         <v>52.065251187090098</v>
       </c>
       <c r="M84" s="4">
-        <f t="shared" si="10"/>
+        <f>(H84-$O$2)/$O$3</f>
         <v>0.16264833812430807</v>
       </c>
     </row>
@@ -5482,27 +5482,27 @@
         <v>1089.5353839320701</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E85,$C85)</f>
         <v>1089.5353839320701</v>
       </c>
       <c r="H85" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F85,$C85*0.9)</f>
         <v>1089.5353839320701</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F85,$C85*0.95)</f>
         <v>1089.5353839320701</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="11"/>
+        <f>H85-$C85</f>
         <v>60.53538393207009</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K85)</f>
         <v>60.53538393207009</v>
       </c>
       <c r="M85" s="4">
-        <f t="shared" si="10"/>
+        <f>(H85-$O$2)/$O$3</f>
         <v>0.15779448716913422</v>
       </c>
     </row>
@@ -5526,27 +5526,27 @@
         <v>1087.1094611516401</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E86,$C86)</f>
         <v>1087.1094611516401</v>
       </c>
       <c r="H86" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F86,$C86*0.9)</f>
         <v>1087.1094611516401</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F86,$C86*0.95)</f>
         <v>1087.1094611516401</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="11"/>
+        <f>H86-$C86</f>
         <v>142.10946115164006</v>
       </c>
       <c r="L86" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K86)</f>
         <v>142.10946115164006</v>
       </c>
       <c r="M86" s="4">
-        <f t="shared" si="10"/>
+        <f>(H86-$O$2)/$O$3</f>
         <v>0.14937990726492678</v>
       </c>
     </row>
@@ -5570,27 +5570,27 @@
         <v>1084.4831844242699</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E87,$C87)</f>
         <v>1140</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F87,$C87*0.9)</f>
         <v>1084.4831844242699</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F87,$C87*0.95)</f>
         <v>1084.4831844242699</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="11"/>
+        <f>H87-$C87</f>
         <v>-55.516815575730107</v>
       </c>
       <c r="L87" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K87)</f>
         <v>55.516815575730107</v>
       </c>
       <c r="M87" s="4">
-        <f t="shared" si="10"/>
+        <f>(H87-$O$2)/$O$3</f>
         <v>0.14027037766600883</v>
       </c>
     </row>
@@ -5614,27 +5614,27 @@
         <v>1081.3766005207001</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E88,$C88)</f>
         <v>1081.3766005207001</v>
       </c>
       <c r="H88" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F88,$C88*0.9)</f>
         <v>1081.3766005207001</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F88,$C88*0.95)</f>
         <v>1081.3766005207001</v>
       </c>
       <c r="K88" s="3">
-        <f t="shared" si="11"/>
+        <f>H88-$C88</f>
         <v>356.37660052070009</v>
       </c>
       <c r="L88" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K88)</f>
         <v>356.37660052070009</v>
       </c>
       <c r="M88" s="4">
-        <f t="shared" si="10"/>
+        <f>(H88-$O$2)/$O$3</f>
         <v>0.12949484981467346</v>
       </c>
     </row>
@@ -5658,27 +5658,27 @@
         <v>1080.5089765832699</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E89,$C89)</f>
         <v>1090</v>
       </c>
       <c r="H89" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F89,$C89*0.9)</f>
         <v>1080.5089765832699</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F89,$C89*0.95)</f>
         <v>1080.5089765832699</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="11"/>
+        <f>H89-$C89</f>
         <v>-9.4910234167300587</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K89)</f>
         <v>9.4910234167300587</v>
       </c>
       <c r="M89" s="4">
-        <f t="shared" si="10"/>
+        <f>(H89-$O$2)/$O$3</f>
         <v>0.12648540078884135</v>
       </c>
     </row>
@@ -5702,27 +5702,27 @@
         <v>1012.23410495955</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E90,$C90)</f>
         <v>1199</v>
       </c>
       <c r="H90" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F90,$C90*0.9)</f>
         <v>1079.1000000000001</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F90,$C90*0.95)</f>
         <v>1139.05</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="11"/>
+        <f>H90-$C90</f>
         <v>-119.89999999999986</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K90)</f>
         <v>119.89999999999986</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" si="10"/>
+        <f>(H90-$O$2)/$O$3</f>
         <v>0.12159821058694248</v>
       </c>
     </row>
@@ -5746,27 +5746,27 @@
         <v>1074.84958305535</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E91,$C91)</f>
         <v>1074.84958305535</v>
       </c>
       <c r="H91" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F91,$C91*0.9)</f>
         <v>1074.84958305535</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F91,$C91*0.95)</f>
         <v>1074.84958305535</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="11"/>
+        <f>H91-$C91</f>
         <v>7.8495830553499673</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K91)</f>
         <v>7.8495830553499673</v>
       </c>
       <c r="M91" s="4">
-        <f t="shared" si="10"/>
+        <f>(H91-$O$2)/$O$3</f>
         <v>0.10685517206342603</v>
       </c>
     </row>
@@ -5790,27 +5790,27 @@
         <v>1066.5166709482301</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E92,$C92)</f>
         <v>1136</v>
       </c>
       <c r="H92" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F92,$C92*0.9)</f>
         <v>1066.5166709482301</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F92,$C92*0.95)</f>
         <v>1079.2</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="11"/>
+        <f>H92-$C92</f>
         <v>-69.483329051769942</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K92)</f>
         <v>69.483329051769942</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" si="10"/>
+        <f>(H92-$O$2)/$O$3</f>
         <v>7.7951550181583368E-2</v>
       </c>
     </row>
@@ -5834,27 +5834,27 @@
         <v>1043.46625653055</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E93,$C93)</f>
         <v>1185</v>
       </c>
       <c r="H93" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F93,$C93*0.9)</f>
         <v>1066.5</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F93,$C93*0.95)</f>
         <v>1125.75</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="11"/>
+        <f>H93-$C93</f>
         <v>-118.5</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K93)</f>
         <v>118.5</v>
       </c>
       <c r="M93" s="4">
-        <f t="shared" si="10"/>
+        <f>(H93-$O$2)/$O$3</f>
         <v>7.7893725164607408E-2</v>
       </c>
     </row>
@@ -5878,27 +5878,27 @@
         <v>1065.9026664847099</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E94,$C94)</f>
         <v>1111</v>
       </c>
       <c r="H94" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F94,$C94*0.9)</f>
         <v>1065.9026664847099</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F94,$C94*0.95)</f>
         <v>1065.9026664847099</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="11"/>
+        <f>H94-$C94</f>
         <v>-45.097333515290075</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K94)</f>
         <v>45.097333515290075</v>
       </c>
       <c r="M94" s="4">
-        <f t="shared" si="10"/>
+        <f>(H94-$O$2)/$O$3</f>
         <v>7.5821808187522738E-2</v>
       </c>
     </row>
@@ -5922,27 +5922,27 @@
         <v>1063.56936350358</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E95,$C95)</f>
         <v>1105</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F95,$C95*0.9)</f>
         <v>1063.56936350358</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F95,$C95*0.95)</f>
         <v>1063.56936350358</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="11"/>
+        <f>H95-$C95</f>
         <v>-41.430636496419993</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K95)</f>
         <v>41.430636496419993</v>
       </c>
       <c r="M95" s="4">
-        <f t="shared" si="10"/>
+        <f>(H95-$O$2)/$O$3</f>
         <v>6.7728490241119377E-2</v>
       </c>
     </row>
@@ -5966,27 +5966,27 @@
         <v>1058.7392915452599</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E96,$C96)</f>
         <v>1058.7392915452599</v>
       </c>
       <c r="H96" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F96,$C96*0.9)</f>
         <v>1058.7392915452599</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F96,$C96*0.95)</f>
         <v>1058.7392915452599</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="11"/>
+        <f>H96-$C96</f>
         <v>42.739291545259903</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K96)</f>
         <v>42.739291545259903</v>
       </c>
       <c r="M96" s="4">
-        <f t="shared" si="10"/>
+        <f>(H96-$O$2)/$O$3</f>
         <v>5.0974854567212381E-2</v>
       </c>
     </row>
@@ -6010,27 +6010,27 @@
         <v>1050.5068941698901</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E97,$C97)</f>
         <v>1176</v>
       </c>
       <c r="H97" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F97,$C97*0.9)</f>
         <v>1058.4000000000001</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F97,$C97*0.95)</f>
         <v>1117.2</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="11"/>
+        <f>H97-$C97</f>
         <v>-117.59999999999991</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K97)</f>
         <v>117.59999999999991</v>
       </c>
       <c r="M97" s="4">
-        <f t="shared" si="10"/>
+        <f>(H97-$O$2)/$O$3</f>
         <v>4.9797984535964061E-2</v>
       </c>
     </row>
@@ -6054,27 +6054,27 @@
         <v>1058.36675067427</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E98,$C98)</f>
         <v>1076</v>
       </c>
       <c r="H98" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F98,$C98*0.9)</f>
         <v>1058.36675067427</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F98,$C98*0.95)</f>
         <v>1058.36675067427</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="11"/>
+        <f>H98-$C98</f>
         <v>-17.633249325730048</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K98)</f>
         <v>17.633249325730048</v>
       </c>
       <c r="M98" s="4">
-        <f t="shared" si="10"/>
+        <f>(H98-$O$2)/$O$3</f>
         <v>4.9682655593767611E-2</v>
       </c>
     </row>
@@ -6098,27 +6098,27 @@
         <v>1058.3109191393701</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E99,$C99)</f>
         <v>1144</v>
       </c>
       <c r="H99" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F99,$C99*0.9)</f>
         <v>1058.3109191393701</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F99,$C99*0.95)</f>
         <v>1086.8</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="11"/>
+        <f>H99-$C99</f>
         <v>-85.689080860629929</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K99)</f>
         <v>85.689080860629929</v>
       </c>
       <c r="M99" s="4">
-        <f t="shared" si="10"/>
+        <f>(H99-$O$2)/$O$3</f>
         <v>4.9488997776058211E-2</v>
       </c>
     </row>
@@ -6142,27 +6142,27 @@
         <v>1057.21580826084</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E100,$C100)</f>
         <v>1057.21580826084</v>
       </c>
       <c r="H100" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F100,$C100*0.9)</f>
         <v>1057.21580826084</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F100,$C100*0.95)</f>
         <v>1057.21580826084</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="11"/>
+        <f>H100-$C100</f>
         <v>99.215808260840049</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K100)</f>
         <v>99.215808260840049</v>
       </c>
       <c r="M100" s="4">
-        <f t="shared" si="10"/>
+        <f>(H100-$O$2)/$O$3</f>
         <v>4.5690485281887148E-2</v>
       </c>
     </row>
@@ -6186,27 +6186,27 @@
         <v>1056.84700209171</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E101,$C101)</f>
         <v>1085</v>
       </c>
       <c r="H101" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F101,$C101*0.9)</f>
         <v>1056.84700209171</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F101,$C101*0.95)</f>
         <v>1056.84700209171</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="11"/>
+        <f>H101-$C101</f>
         <v>-28.15299790828999</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K101)</f>
         <v>28.15299790828999</v>
       </c>
       <c r="M101" s="4">
-        <f t="shared" si="10"/>
+        <f>(H101-$O$2)/$O$3</f>
         <v>4.4411240532489467E-2</v>
       </c>
     </row>
@@ -6230,27 +6230,27 @@
         <v>1046.1545793950199</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E102,$C102)</f>
         <v>1046.1545793950199</v>
       </c>
       <c r="H102" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F102,$C102*0.9)</f>
         <v>1046.1545793950199</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F102,$C102*0.95)</f>
         <v>1046.1545793950199</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="11"/>
+        <f>H102-$C102</f>
         <v>61.154579395019937</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K102)</f>
         <v>61.154579395019937</v>
       </c>
       <c r="M102" s="4">
-        <f t="shared" si="10"/>
+        <f>(H102-$O$2)/$O$3</f>
         <v>7.3233967327330533E-3</v>
       </c>
     </row>
@@ -6274,27 +6274,27 @@
         <v>1043.90450260903</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E103,$C103)</f>
         <v>1043.90450260903</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F103,$C103*0.9)</f>
         <v>1043.90450260903</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F103,$C103*0.95)</f>
         <v>1043.90450260903</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="11"/>
+        <f>H103-$C103</f>
         <v>128.90450260903003</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K103)</f>
         <v>128.90450260903003</v>
       </c>
       <c r="M103" s="4">
-        <f t="shared" si="10"/>
+        <f>(H103-$O$2)/$O$3</f>
         <v>-4.8124200476133005E-4</v>
       </c>
     </row>
@@ -6318,27 +6318,27 @@
         <v>951.08586964415599</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E104,$C104)</f>
         <v>1158</v>
       </c>
       <c r="H104" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F104,$C104*0.9)</f>
         <v>1042.2</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F104,$C104*0.95)</f>
         <v>1100.0999999999999</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="11"/>
+        <f>H104-$C104</f>
         <v>-115.79999999999995</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K104)</f>
         <v>115.79999999999995</v>
       </c>
       <c r="M104" s="4">
-        <f t="shared" si="10"/>
+        <f>(H104-$O$2)/$O$3</f>
         <v>-6.3934967213234205E-3</v>
       </c>
     </row>
@@ -6362,27 +6362,27 @@
         <v>1041.63788777998</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E105,$C105)</f>
         <v>1041.63788777998</v>
       </c>
       <c r="H105" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F105,$C105*0.9)</f>
         <v>1041.63788777998</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F105,$C105*0.95)</f>
         <v>1041.63788777998</v>
       </c>
       <c r="K105" s="3">
-        <f t="shared" si="11"/>
+        <f>H105-$C105</f>
         <v>208.63788777998002</v>
       </c>
       <c r="L105" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K105)</f>
         <v>208.63788777998002</v>
       </c>
       <c r="M105" s="4">
-        <f t="shared" si="10"/>
+        <f>(H105-$O$2)/$O$3</f>
         <v>-8.3432447630362276E-3</v>
       </c>
     </row>
@@ -6406,27 +6406,27 @@
         <v>1028.6512281498501</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E106,$C106)</f>
         <v>1028.6512281498501</v>
       </c>
       <c r="H106" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F106,$C106*0.9)</f>
         <v>1028.6512281498501</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F106,$C106*0.95)</f>
         <v>1028.6512281498501</v>
       </c>
       <c r="K106" s="3">
-        <f t="shared" si="11"/>
+        <f>H106-$C106</f>
         <v>268.65122814985011</v>
       </c>
       <c r="L106" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K106)</f>
         <v>268.65122814985011</v>
       </c>
       <c r="M106" s="4">
-        <f t="shared" si="10"/>
+        <f>(H106-$O$2)/$O$3</f>
         <v>-5.3388901627308735E-2</v>
       </c>
     </row>
@@ -6450,27 +6450,27 @@
         <v>1025.10887153513</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E107,$C107)</f>
         <v>1076</v>
       </c>
       <c r="H107" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F107,$C107*0.9)</f>
         <v>1025.10887153513</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F107,$C107*0.95)</f>
         <v>1025.10887153513</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="11"/>
+        <f>H107-$C107</f>
         <v>-50.891128464870008</v>
       </c>
       <c r="L107" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K107)</f>
         <v>50.891128464870008</v>
       </c>
       <c r="M107" s="4">
-        <f t="shared" si="10"/>
+        <f>(H107-$O$2)/$O$3</f>
         <v>-6.567595504228857E-2</v>
       </c>
     </row>
@@ -6494,27 +6494,27 @@
         <v>1022.75704167309</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E108,$C108)</f>
         <v>1033</v>
       </c>
       <c r="H108" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F108,$C108*0.9)</f>
         <v>1022.75704167309</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F108,$C108*0.95)</f>
         <v>1022.75704167309</v>
       </c>
       <c r="K108" s="3">
-        <f t="shared" si="11"/>
+        <f>H108-$C108</f>
         <v>-10.242958326909957</v>
       </c>
       <c r="L108" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K108)</f>
         <v>10.242958326909957</v>
       </c>
       <c r="M108" s="4">
-        <f t="shared" si="10"/>
+        <f>(H108-$O$2)/$O$3</f>
         <v>-7.3833535512235884E-2</v>
       </c>
     </row>
@@ -6538,27 +6538,27 @@
         <v>1019.98426535526</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E109,$C109)</f>
         <v>1089</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F109,$C109*0.9)</f>
         <v>1019.98426535526</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F109,$C109*0.95)</f>
         <v>1034.55</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="11"/>
+        <f>H109-$C109</f>
         <v>-69.01573464473995</v>
       </c>
       <c r="L109" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K109)</f>
         <v>69.01573464473995</v>
       </c>
       <c r="M109" s="4">
-        <f t="shared" si="10"/>
+        <f>(H109-$O$2)/$O$3</f>
         <v>-8.3451215048902197E-2</v>
       </c>
     </row>
@@ -6582,27 +6582,27 @@
         <v>1016.73196427925</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E110,$C110)</f>
         <v>1016.73196427925</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F110,$C110*0.9)</f>
         <v>1016.73196427925</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F110,$C110*0.95)</f>
         <v>1016.73196427925</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="11"/>
+        <f>H110-$C110</f>
         <v>48.731964279249951</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K110)</f>
         <v>48.731964279249951</v>
       </c>
       <c r="M110" s="4">
-        <f t="shared" si="10"/>
+        <f>(H110-$O$2)/$O$3</f>
         <v>-9.4732178935055089E-2</v>
       </c>
     </row>
@@ -6626,27 +6626,27 @@
         <v>1015.29751029838</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E111,$C111)</f>
         <v>1085</v>
       </c>
       <c r="H111" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F111,$C111*0.9)</f>
         <v>1015.29751029838</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F111,$C111*0.95)</f>
         <v>1030.75</v>
       </c>
       <c r="K111" s="3">
-        <f t="shared" si="11"/>
+        <f>H111-$C111</f>
         <v>-69.702489701620038</v>
       </c>
       <c r="L111" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K111)</f>
         <v>69.702489701620038</v>
       </c>
       <c r="M111" s="4">
-        <f t="shared" si="10"/>
+        <f>(H111-$O$2)/$O$3</f>
         <v>-9.9707740291875901E-2</v>
       </c>
     </row>
@@ -6670,27 +6670,27 @@
         <v>1011.11869146854</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E112,$C112)</f>
         <v>1011.11869146854</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F112,$C112*0.9)</f>
         <v>1011.11869146854</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F112,$C112*0.95)</f>
         <v>1011.11869146854</v>
       </c>
       <c r="K112" s="3">
-        <f t="shared" si="11"/>
+        <f>H112-$C112</f>
         <v>41.118691468539964</v>
       </c>
       <c r="L112" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K112)</f>
         <v>41.118691468539964</v>
       </c>
       <c r="M112" s="4">
-        <f t="shared" si="10"/>
+        <f>(H112-$O$2)/$O$3</f>
         <v>-0.11420243288166317</v>
       </c>
     </row>
@@ -6714,27 +6714,27 @@
         <v>1009.69578614018</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E113,$C113)</f>
         <v>1009.69578614018</v>
       </c>
       <c r="H113" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F113,$C113*0.9)</f>
         <v>1009.69578614018</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F113,$C113*0.95)</f>
         <v>1009.69578614018</v>
       </c>
       <c r="K113" s="3">
-        <f t="shared" si="11"/>
+        <f>H113-$C113</f>
         <v>28.695786140179962</v>
       </c>
       <c r="L113" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K113)</f>
         <v>28.695786140179962</v>
       </c>
       <c r="M113" s="4">
-        <f t="shared" si="10"/>
+        <f>(H113-$O$2)/$O$3</f>
         <v>-0.11913793646743077</v>
       </c>
     </row>
@@ -6758,27 +6758,27 @@
         <v>1008.05734071769</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E114,$C114)</f>
         <v>1008.05734071769</v>
       </c>
       <c r="H114" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F114,$C114*0.9)</f>
         <v>1008.05734071769</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F114,$C114*0.95)</f>
         <v>1008.05734071769</v>
       </c>
       <c r="K114" s="3">
-        <f t="shared" si="11"/>
+        <f>H114-$C114</f>
         <v>362.05734071768995</v>
       </c>
       <c r="L114" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K114)</f>
         <v>362.05734071768995</v>
       </c>
       <c r="M114" s="4">
-        <f t="shared" si="10"/>
+        <f>(H114-$O$2)/$O$3</f>
         <v>-0.12482106456921692</v>
       </c>
     </row>
@@ -6802,27 +6802,27 @@
         <v>1001.13282077579</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E115,$C115)</f>
         <v>1001.13282077579</v>
       </c>
       <c r="H115" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F115,$C115*0.9)</f>
         <v>1001.13282077579</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F115,$C115*0.95)</f>
         <v>1001.13282077579</v>
       </c>
       <c r="K115" s="3">
-        <f t="shared" si="11"/>
+        <f>H115-$C115</f>
         <v>139.13282077579004</v>
       </c>
       <c r="L115" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K115)</f>
         <v>139.13282077579004</v>
       </c>
       <c r="M115" s="4">
-        <f t="shared" si="10"/>
+        <f>(H115-$O$2)/$O$3</f>
         <v>-0.14883952336742565</v>
       </c>
     </row>
@@ -6846,27 +6846,27 @@
         <v>1000.81247489578</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E116,$C116)</f>
         <v>1000.81247489578</v>
       </c>
       <c r="H116" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F116,$C116*0.9)</f>
         <v>1000.81247489578</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F116,$C116*0.95)</f>
         <v>1000.81247489578</v>
       </c>
       <c r="K116" s="3">
-        <f t="shared" si="11"/>
+        <f>H116-$C116</f>
         <v>61.812474895780042</v>
       </c>
       <c r="L116" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K116)</f>
         <v>61.812474895780042</v>
       </c>
       <c r="M116" s="4">
-        <f t="shared" si="10"/>
+        <f>(H116-$O$2)/$O$3</f>
         <v>-0.14995067827560041</v>
       </c>
     </row>
@@ -6890,27 +6890,27 @@
         <v>998.16555328352001</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E117,$C117)</f>
         <v>1058</v>
       </c>
       <c r="H117" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F117,$C117*0.9)</f>
         <v>998.16555328352001</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F117,$C117*0.95)</f>
         <v>1005.0999999999999</v>
       </c>
       <c r="K117" s="3">
-        <f t="shared" si="11"/>
+        <f>H117-$C117</f>
         <v>-59.834446716479988</v>
       </c>
       <c r="L117" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K117)</f>
         <v>59.834446716479988</v>
       </c>
       <c r="M117" s="4">
-        <f t="shared" si="10"/>
+        <f>(H117-$O$2)/$O$3</f>
         <v>-0.15913181692774966</v>
       </c>
     </row>
@@ -6934,27 +6934,27 @@
         <v>995.05206093280697</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E118,$C118)</f>
         <v>1019</v>
       </c>
       <c r="H118" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F118,$C118*0.9)</f>
         <v>995.05206093280697</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F118,$C118*0.95)</f>
         <v>995.05206093280697</v>
       </c>
       <c r="K118" s="3">
-        <f t="shared" si="11"/>
+        <f>H118-$C118</f>
         <v>-23.947939067193033</v>
       </c>
       <c r="L118" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K118)</f>
         <v>23.947939067193033</v>
       </c>
       <c r="M118" s="4">
-        <f t="shared" si="10"/>
+        <f>(H118-$O$2)/$O$3</f>
         <v>-0.16993130748761384</v>
       </c>
     </row>
@@ -6978,27 +6978,27 @@
         <v>990.66795620712401</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E119,$C119)</f>
         <v>990.66795620712401</v>
       </c>
       <c r="H119" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F119,$C119*0.9)</f>
         <v>990.66795620712401</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F119,$C119*0.95)</f>
         <v>990.66795620712401</v>
       </c>
       <c r="K119" s="3">
-        <f t="shared" si="11"/>
+        <f>H119-$C119</f>
         <v>58.667956207124007</v>
       </c>
       <c r="L119" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K119)</f>
         <v>58.667956207124007</v>
       </c>
       <c r="M119" s="4">
-        <f t="shared" si="10"/>
+        <f>(H119-$O$2)/$O$3</f>
         <v>-0.18513805677916934</v>
       </c>
     </row>
@@ -7022,27 +7022,27 @@
         <v>986.99433526650705</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E120,$C120)</f>
         <v>1038</v>
       </c>
       <c r="H120" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F120,$C120*0.9)</f>
         <v>986.99433526650705</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F120,$C120*0.95)</f>
         <v>986.99433526650705</v>
       </c>
       <c r="K120" s="3">
-        <f t="shared" si="11"/>
+        <f>H120-$C120</f>
         <v>-51.005664733492949</v>
       </c>
       <c r="L120" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K120)</f>
         <v>51.005664733492949</v>
       </c>
       <c r="M120" s="4">
-        <f t="shared" si="10"/>
+        <f>(H120-$O$2)/$O$3</f>
         <v>-0.19788041494158018</v>
       </c>
     </row>
@@ -7066,27 +7066,27 @@
         <v>982.18455300968901</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E121,$C121)</f>
         <v>982.18455300968901</v>
       </c>
       <c r="H121" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F121,$C121*0.9)</f>
         <v>982.18455300968901</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F121,$C121*0.95)</f>
         <v>982.18455300968901</v>
       </c>
       <c r="K121" s="3">
-        <f t="shared" si="11"/>
+        <f>H121-$C121</f>
         <v>133.18455300968901</v>
       </c>
       <c r="L121" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K121)</f>
         <v>133.18455300968901</v>
       </c>
       <c r="M121" s="4">
-        <f t="shared" si="10"/>
+        <f>(H121-$O$2)/$O$3</f>
         <v>-0.21456367355489031</v>
       </c>
     </row>
@@ -7110,27 +7110,27 @@
         <v>978.73750489487304</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E122,$C122)</f>
         <v>1036</v>
       </c>
       <c r="H122" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F122,$C122*0.9)</f>
         <v>978.73750489487304</v>
       </c>
       <c r="I122" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F122,$C122*0.95)</f>
         <v>984.19999999999993</v>
       </c>
       <c r="K122" s="3">
-        <f t="shared" si="11"/>
+        <f>H122-$C122</f>
         <v>-57.262495105126959</v>
       </c>
       <c r="L122" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K122)</f>
         <v>57.262495105126959</v>
       </c>
       <c r="M122" s="4">
-        <f t="shared" si="10"/>
+        <f>(H122-$O$2)/$O$3</f>
         <v>-0.22652013895838718</v>
       </c>
     </row>
@@ -7154,27 +7154,27 @@
         <v>976.36765392372001</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E123,$C123)</f>
         <v>976.36765392372001</v>
       </c>
       <c r="H123" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F123,$C123*0.9)</f>
         <v>976.36765392372001</v>
       </c>
       <c r="I123" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F123,$C123*0.95)</f>
         <v>976.36765392372001</v>
       </c>
       <c r="K123" s="3">
-        <f t="shared" si="11"/>
+        <f>H123-$C123</f>
         <v>39.367653923720013</v>
       </c>
       <c r="L123" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K123)</f>
         <v>39.367653923720013</v>
       </c>
       <c r="M123" s="4">
-        <f t="shared" si="10"/>
+        <f>(H123-$O$2)/$O$3</f>
         <v>-0.23474022762678901</v>
       </c>
     </row>
@@ -7198,27 +7198,27 @@
         <v>976.10290616112104</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E124,$C124)</f>
         <v>1007</v>
       </c>
       <c r="H124" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F124,$C124*0.9)</f>
         <v>976.10290616112104</v>
       </c>
       <c r="I124" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F124,$C124*0.95)</f>
         <v>976.10290616112104</v>
       </c>
       <c r="K124" s="3">
-        <f t="shared" si="11"/>
+        <f>H124-$C124</f>
         <v>-30.897093838878959</v>
       </c>
       <c r="L124" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K124)</f>
         <v>30.897093838878959</v>
       </c>
       <c r="M124" s="4">
-        <f t="shared" si="10"/>
+        <f>(H124-$O$2)/$O$3</f>
         <v>-0.23565853435147968</v>
       </c>
     </row>
@@ -7242,27 +7242,27 @@
         <v>973.24058252919201</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E125,$C125)</f>
         <v>985</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F125,$C125*0.9)</f>
         <v>973.24058252919201</v>
       </c>
       <c r="I125" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F125,$C125*0.95)</f>
         <v>973.24058252919201</v>
       </c>
       <c r="K125" s="3">
-        <f t="shared" si="11"/>
+        <f>H125-$C125</f>
         <v>-11.759417470807989</v>
       </c>
       <c r="L125" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K125)</f>
         <v>11.759417470807989</v>
       </c>
       <c r="M125" s="4">
-        <f t="shared" si="10"/>
+        <f>(H125-$O$2)/$O$3</f>
         <v>-0.24558681859319761</v>
       </c>
     </row>
@@ -7286,27 +7286,27 @@
         <v>970.90748555445202</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E126,$C126)</f>
         <v>970.90748555445202</v>
       </c>
       <c r="H126" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F126,$C126*0.9)</f>
         <v>970.90748555445202</v>
       </c>
       <c r="I126" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F126,$C126*0.95)</f>
         <v>970.90748555445202</v>
       </c>
       <c r="K126" s="3">
-        <f t="shared" si="11"/>
+        <f>H126-$C126</f>
         <v>309.90748555445202</v>
       </c>
       <c r="L126" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K126)</f>
         <v>309.90748555445202</v>
       </c>
       <c r="M126" s="4">
-        <f t="shared" si="10"/>
+        <f>(H126-$O$2)/$O$3</f>
         <v>-0.25367942198378624</v>
       </c>
     </row>
@@ -7330,27 +7330,27 @@
         <v>970.05786730190903</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E127,$C127)</f>
         <v>976</v>
       </c>
       <c r="H127" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F127,$C127*0.9)</f>
         <v>970.05786730190903</v>
       </c>
       <c r="I127" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F127,$C127*0.95)</f>
         <v>970.05786730190903</v>
       </c>
       <c r="K127" s="3">
-        <f t="shared" si="11"/>
+        <f>H127-$C127</f>
         <v>-5.9421326980909726</v>
       </c>
       <c r="L127" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K127)</f>
         <v>5.9421326980909726</v>
       </c>
       <c r="M127" s="4">
-        <f t="shared" si="10"/>
+        <f>(H127-$O$2)/$O$3</f>
         <v>-0.2566264163117874</v>
       </c>
     </row>
@@ -7374,27 +7374,27 @@
         <v>965.20312027628404</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E128,$C128)</f>
         <v>994</v>
       </c>
       <c r="H128" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F128,$C128*0.9)</f>
         <v>965.20312027628404</v>
       </c>
       <c r="I128" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F128,$C128*0.95)</f>
         <v>965.20312027628404</v>
       </c>
       <c r="K128" s="3">
-        <f t="shared" si="11"/>
+        <f>H128-$C128</f>
         <v>-28.796879723715961</v>
       </c>
       <c r="L128" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K128)</f>
         <v>28.796879723715961</v>
       </c>
       <c r="M128" s="4">
-        <f t="shared" si="10"/>
+        <f>(H128-$O$2)/$O$3</f>
         <v>-0.27346564016976754</v>
       </c>
     </row>
@@ -7418,27 +7418,27 @@
         <v>964.87807463936599</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="6"/>
+        <f>MAX(E129,$C129)</f>
         <v>995</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="7"/>
+        <f>MAX(F129,$C129*0.9)</f>
         <v>964.87807463936599</v>
       </c>
       <c r="I129" s="5">
-        <f t="shared" si="8"/>
+        <f>MAX(F129,$C129*0.95)</f>
         <v>964.87807463936599</v>
       </c>
       <c r="K129" s="3">
-        <f t="shared" si="11"/>
+        <f>H129-$C129</f>
         <v>-30.121925360634009</v>
       </c>
       <c r="L129" s="3">
-        <f t="shared" si="9"/>
+        <f>ABS(K129)</f>
         <v>30.121925360634009</v>
       </c>
       <c r="M129" s="4">
-        <f t="shared" si="10"/>
+        <f>(H129-$O$2)/$O$3</f>
         <v>-0.27459309670153564</v>
       </c>
     </row>
@@ -7462,27 +7462,27 @@
         <v>963.06781951132803</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" ref="G130:G193" si="12">MAX(E130,$C130)</f>
+        <f>MAX(E130,$C130)</f>
         <v>963.06781951132803</v>
       </c>
       <c r="H130" s="12">
-        <f t="shared" ref="H130:H193" si="13">MAX(F130,$C130*0.9)</f>
+        <f>MAX(F130,$C130*0.9)</f>
         <v>963.06781951132803</v>
       </c>
       <c r="I130" s="5">
-        <f t="shared" ref="I130:I193" si="14">MAX(F130,$C130*0.95)</f>
+        <f>MAX(F130,$C130*0.95)</f>
         <v>963.06781951132803</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="11"/>
+        <f>H130-$C130</f>
         <v>168.06781951132803</v>
       </c>
       <c r="L130" s="3">
-        <f t="shared" ref="L130:L193" si="15">ABS(K130)</f>
+        <f>ABS(K130)</f>
         <v>168.06781951132803</v>
       </c>
       <c r="M130" s="4">
-        <f t="shared" ref="M130:M193" si="16">(H130-$O$2)/$O$3</f>
+        <f>(H130-$O$2)/$O$3</f>
         <v>-0.28087216565820561</v>
       </c>
     </row>
@@ -7506,27 +7506,27 @@
         <v>962.75513293536903</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E131,$C131)</f>
         <v>962.75513293536903</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F131,$C131*0.9)</f>
         <v>962.75513293536903</v>
       </c>
       <c r="I131" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F131,$C131*0.95)</f>
         <v>962.75513293536903</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" ref="K131:K194" si="17">H131-$C131</f>
+        <f>H131-$C131</f>
         <v>4.7551329353690335</v>
       </c>
       <c r="L131" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K131)</f>
         <v>4.7551329353690335</v>
       </c>
       <c r="M131" s="4">
-        <f t="shared" si="16"/>
+        <f>(H131-$O$2)/$O$3</f>
         <v>-0.28195675342810717</v>
       </c>
     </row>
@@ -7550,27 +7550,27 @@
         <v>959.90418521529796</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E132,$C132)</f>
         <v>959.90418521529796</v>
       </c>
       <c r="H132" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F132,$C132*0.9)</f>
         <v>959.90418521529796</v>
       </c>
       <c r="I132" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F132,$C132*0.95)</f>
         <v>959.90418521529796</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="17"/>
+        <f>H132-$C132</f>
         <v>44.904185215297957</v>
       </c>
       <c r="L132" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K132)</f>
         <v>44.904185215297957</v>
       </c>
       <c r="M132" s="4">
-        <f t="shared" si="16"/>
+        <f>(H132-$O$2)/$O$3</f>
         <v>-0.29184557906871705</v>
       </c>
     </row>
@@ -7594,27 +7594,27 @@
         <v>958.49991479693904</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E133,$C133)</f>
         <v>958.49991479693904</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F133,$C133*0.9)</f>
         <v>958.49991479693904</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F133,$C133*0.95)</f>
         <v>958.49991479693904</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="17"/>
+        <f>H133-$C133</f>
         <v>144.49991479693904</v>
       </c>
       <c r="L133" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K133)</f>
         <v>144.49991479693904</v>
       </c>
       <c r="M133" s="4">
-        <f t="shared" si="16"/>
+        <f>(H133-$O$2)/$O$3</f>
         <v>-0.29671644542016012</v>
       </c>
     </row>
@@ -7638,27 +7638,27 @@
         <v>949.19365334853796</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E134,$C134)</f>
         <v>967</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F134,$C134*0.9)</f>
         <v>949.19365334853796</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F134,$C134*0.95)</f>
         <v>949.19365334853796</v>
       </c>
       <c r="K134" s="3">
-        <f t="shared" si="17"/>
+        <f>H134-$C134</f>
         <v>-17.806346651462036</v>
       </c>
       <c r="L134" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K134)</f>
         <v>17.806346651462036</v>
       </c>
       <c r="M134" s="4">
-        <f t="shared" si="16"/>
+        <f>(H134-$O$2)/$O$3</f>
         <v>-0.32899623651603943</v>
       </c>
     </row>
@@ -7682,27 +7682,27 @@
         <v>949.05546602530296</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E135,$C135)</f>
         <v>949.05546602530296</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F135,$C135*0.9)</f>
         <v>949.05546602530296</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F135,$C135*0.95)</f>
         <v>949.05546602530296</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" si="17"/>
+        <f>H135-$C135</f>
         <v>4.0554660253029624</v>
       </c>
       <c r="L135" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K135)</f>
         <v>4.0554660253029624</v>
       </c>
       <c r="M135" s="4">
-        <f t="shared" si="16"/>
+        <f>(H135-$O$2)/$O$3</f>
         <v>-0.32947555444095017</v>
       </c>
     </row>
@@ -7726,27 +7726,27 @@
         <v>948.42729200014105</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E136,$C136)</f>
         <v>953</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F136,$C136*0.9)</f>
         <v>948.42729200014105</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F136,$C136*0.95)</f>
         <v>948.42729200014105</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="17"/>
+        <f>H136-$C136</f>
         <v>-4.5727079998589488</v>
       </c>
       <c r="L136" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K136)</f>
         <v>4.5727079998589488</v>
       </c>
       <c r="M136" s="4">
-        <f t="shared" si="16"/>
+        <f>(H136-$O$2)/$O$3</f>
         <v>-0.33165444511756748</v>
       </c>
     </row>
@@ -7770,27 +7770,27 @@
         <v>948.13338198632096</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E137,$C137)</f>
         <v>984</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F137,$C137*0.9)</f>
         <v>948.13338198632096</v>
       </c>
       <c r="I137" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F137,$C137*0.95)</f>
         <v>948.13338198632096</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="17"/>
+        <f>H137-$C137</f>
         <v>-35.866618013679044</v>
       </c>
       <c r="L137" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K137)</f>
         <v>35.866618013679044</v>
       </c>
       <c r="M137" s="4">
-        <f t="shared" si="16"/>
+        <f>(H137-$O$2)/$O$3</f>
         <v>-0.33267390431712929</v>
       </c>
     </row>
@@ -7814,27 +7814,27 @@
         <v>945.88642927138505</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E138,$C138)</f>
         <v>975</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F138,$C138*0.9)</f>
         <v>945.88642927138505</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F138,$C138*0.95)</f>
         <v>945.88642927138505</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="17"/>
+        <f>H138-$C138</f>
         <v>-29.113570728614945</v>
       </c>
       <c r="L138" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K138)</f>
         <v>29.113570728614945</v>
       </c>
       <c r="M138" s="4">
-        <f t="shared" si="16"/>
+        <f>(H138-$O$2)/$O$3</f>
         <v>-0.3404677068706683</v>
       </c>
     </row>
@@ -7858,27 +7858,27 @@
         <v>938.66035471251496</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E139,$C139)</f>
         <v>1025</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F139,$C139*0.9)</f>
         <v>938.66035471251496</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F139,$C139*0.95)</f>
         <v>973.75</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="17"/>
+        <f>H139-$C139</f>
         <v>-86.339645287485041</v>
       </c>
       <c r="L139" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K139)</f>
         <v>86.339645287485041</v>
       </c>
       <c r="M139" s="4">
-        <f t="shared" si="16"/>
+        <f>(H139-$O$2)/$O$3</f>
         <v>-0.36553214101502074</v>
       </c>
     </row>
@@ -7902,27 +7902,27 @@
         <v>938.50249205991202</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E140,$C140)</f>
         <v>938.50249205991202</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F140,$C140*0.9)</f>
         <v>938.50249205991202</v>
       </c>
       <c r="I140" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F140,$C140*0.95)</f>
         <v>938.50249205991202</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="17"/>
+        <f>H140-$C140</f>
         <v>197.50249205991202</v>
       </c>
       <c r="L140" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K140)</f>
         <v>197.50249205991202</v>
       </c>
       <c r="M140" s="4">
-        <f t="shared" si="16"/>
+        <f>(H140-$O$2)/$O$3</f>
         <v>-0.36607970498322839</v>
       </c>
     </row>
@@ -7946,27 +7946,27 @@
         <v>937.84051996524602</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E141,$C141)</f>
         <v>937.84051996524602</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F141,$C141*0.9)</f>
         <v>937.84051996524602</v>
       </c>
       <c r="I141" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F141,$C141*0.95)</f>
         <v>937.84051996524602</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="17"/>
+        <f>H141-$C141</f>
         <v>264.84051996524602</v>
       </c>
       <c r="L141" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K141)</f>
         <v>264.84051996524602</v>
       </c>
       <c r="M141" s="4">
-        <f t="shared" si="16"/>
+        <f>(H141-$O$2)/$O$3</f>
         <v>-0.36837582798015872</v>
       </c>
     </row>
@@ -7990,27 +7990,27 @@
         <v>937.62730264157801</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E142,$C142)</f>
         <v>998</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F142,$C142*0.9)</f>
         <v>937.62730264157801</v>
       </c>
       <c r="I142" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F142,$C142*0.95)</f>
         <v>948.09999999999991</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="17"/>
+        <f>H142-$C142</f>
         <v>-60.372697358421988</v>
       </c>
       <c r="L142" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K142)</f>
         <v>60.372697358421988</v>
       </c>
       <c r="M142" s="4">
-        <f t="shared" si="16"/>
+        <f>(H142-$O$2)/$O$3</f>
         <v>-0.36911539571143154</v>
       </c>
     </row>
@@ -8034,27 +8034,27 @@
         <v>937.04132690339895</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E143,$C143)</f>
         <v>937.04132690339895</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F143,$C143*0.9)</f>
         <v>937.04132690339895</v>
       </c>
       <c r="I143" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F143,$C143*0.95)</f>
         <v>937.04132690339895</v>
       </c>
       <c r="K143" s="3">
-        <f t="shared" si="17"/>
+        <f>H143-$C143</f>
         <v>60.041326903398954</v>
       </c>
       <c r="L143" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K143)</f>
         <v>60.041326903398954</v>
       </c>
       <c r="M143" s="4">
-        <f t="shared" si="16"/>
+        <f>(H143-$O$2)/$O$3</f>
         <v>-0.3711479169897719</v>
       </c>
     </row>
@@ -8078,27 +8078,27 @@
         <v>936.26412291897896</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E144,$C144)</f>
         <v>936.26412291897896</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F144,$C144*0.9)</f>
         <v>936.26412291897896</v>
       </c>
       <c r="I144" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F144,$C144*0.95)</f>
         <v>936.26412291897896</v>
       </c>
       <c r="K144" s="3">
-        <f t="shared" si="17"/>
+        <f>H144-$C144</f>
         <v>386.26412291897896</v>
       </c>
       <c r="L144" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K144)</f>
         <v>386.26412291897896</v>
       </c>
       <c r="M144" s="4">
-        <f t="shared" si="16"/>
+        <f>(H144-$O$2)/$O$3</f>
         <v>-0.3738437344665389</v>
       </c>
     </row>
@@ -8122,27 +8122,27 @@
         <v>930.81607991387796</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E145,$C145)</f>
         <v>981</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F145,$C145*0.9)</f>
         <v>930.81607991387796</v>
       </c>
       <c r="I145" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F145,$C145*0.95)</f>
         <v>931.94999999999993</v>
       </c>
       <c r="K145" s="3">
-        <f t="shared" si="17"/>
+        <f>H145-$C145</f>
         <v>-50.183920086122043</v>
       </c>
       <c r="L145" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K145)</f>
         <v>50.183920086122043</v>
       </c>
       <c r="M145" s="4">
-        <f t="shared" si="16"/>
+        <f>(H145-$O$2)/$O$3</f>
         <v>-0.39274087066468877</v>
       </c>
     </row>
@@ -8166,27 +8166,27 @@
         <v>930.77023222219998</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E146,$C146)</f>
         <v>1030</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F146,$C146*0.9)</f>
         <v>930.77023222219998</v>
       </c>
       <c r="I146" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F146,$C146*0.95)</f>
         <v>978.5</v>
       </c>
       <c r="K146" s="3">
-        <f t="shared" si="17"/>
+        <f>H146-$C146</f>
         <v>-99.229767777800021</v>
       </c>
       <c r="L146" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K146)</f>
         <v>99.229767777800021</v>
       </c>
       <c r="M146" s="4">
-        <f t="shared" si="16"/>
+        <f>(H146-$O$2)/$O$3</f>
         <v>-0.39289989842441797</v>
       </c>
     </row>
@@ -8210,27 +8210,27 @@
         <v>924.72971974660197</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E147,$C147)</f>
         <v>953</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F147,$C147*0.9)</f>
         <v>924.72971974660197</v>
       </c>
       <c r="I147" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F147,$C147*0.95)</f>
         <v>924.72971974660197</v>
       </c>
       <c r="K147" s="3">
-        <f t="shared" si="17"/>
+        <f>H147-$C147</f>
         <v>-28.270280253398028</v>
       </c>
       <c r="L147" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K147)</f>
         <v>28.270280253398028</v>
       </c>
       <c r="M147" s="4">
-        <f t="shared" si="16"/>
+        <f>(H147-$O$2)/$O$3</f>
         <v>-0.41385208012546587</v>
       </c>
     </row>
@@ -8254,27 +8254,27 @@
         <v>923.61158673165198</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E148,$C148)</f>
         <v>923.61158673165198</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F148,$C148*0.9)</f>
         <v>923.61158673165198</v>
       </c>
       <c r="I148" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F148,$C148*0.95)</f>
         <v>923.61158673165198</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="17"/>
+        <f>H148-$C148</f>
         <v>32.611586731651983</v>
       </c>
       <c r="L148" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K148)</f>
         <v>32.611586731651983</v>
       </c>
       <c r="M148" s="4">
-        <f t="shared" si="16"/>
+        <f>(H148-$O$2)/$O$3</f>
         <v>-0.41773044743118909</v>
       </c>
     </row>
@@ -8298,27 +8298,27 @@
         <v>921.54896650197895</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E149,$C149)</f>
         <v>921.54896650197895</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F149,$C149*0.9)</f>
         <v>921.54896650197895</v>
       </c>
       <c r="I149" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F149,$C149*0.95)</f>
         <v>921.54896650197895</v>
       </c>
       <c r="K149" s="3">
-        <f t="shared" si="17"/>
+        <f>H149-$C149</f>
         <v>84.548966501978953</v>
       </c>
       <c r="L149" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K149)</f>
         <v>84.548966501978953</v>
       </c>
       <c r="M149" s="4">
-        <f t="shared" si="16"/>
+        <f>(H149-$O$2)/$O$3</f>
         <v>-0.42488487249147144</v>
       </c>
     </row>
@@ -8342,27 +8342,27 @@
         <v>913.84576538859301</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E150,$C150)</f>
         <v>913.84576538859301</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F150,$C150*0.9)</f>
         <v>913.84576538859301</v>
       </c>
       <c r="I150" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F150,$C150*0.95)</f>
         <v>913.84576538859301</v>
       </c>
       <c r="K150" s="3">
-        <f t="shared" si="17"/>
+        <f>H150-$C150</f>
         <v>129.84576538859301</v>
       </c>
       <c r="L150" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K150)</f>
         <v>129.84576538859301</v>
       </c>
       <c r="M150" s="4">
-        <f t="shared" si="16"/>
+        <f>(H150-$O$2)/$O$3</f>
         <v>-0.45160427255220853</v>
       </c>
     </row>
@@ -8386,27 +8386,27 @@
         <v>912.93200268121996</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E151,$C151)</f>
         <v>912.93200268121996</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F151,$C151*0.9)</f>
         <v>912.93200268121996</v>
       </c>
       <c r="I151" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F151,$C151*0.95)</f>
         <v>912.93200268121996</v>
       </c>
       <c r="K151" s="3">
-        <f t="shared" si="17"/>
+        <f>H151-$C151</f>
         <v>48.932002681219956</v>
       </c>
       <c r="L151" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K151)</f>
         <v>48.932002681219956</v>
       </c>
       <c r="M151" s="4">
-        <f t="shared" si="16"/>
+        <f>(H151-$O$2)/$O$3</f>
         <v>-0.45477375897473699</v>
       </c>
     </row>
@@ -8430,27 +8430,27 @@
         <v>905.93877726971004</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E152,$C152)</f>
         <v>909</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F152,$C152*0.9)</f>
         <v>905.93877726971004</v>
       </c>
       <c r="I152" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F152,$C152*0.95)</f>
         <v>905.93877726971004</v>
       </c>
       <c r="K152" s="3">
-        <f t="shared" si="17"/>
+        <f>H152-$C152</f>
         <v>-3.0612227302899555</v>
       </c>
       <c r="L152" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K152)</f>
         <v>3.0612227302899555</v>
       </c>
       <c r="M152" s="4">
-        <f t="shared" si="16"/>
+        <f>(H152-$O$2)/$O$3</f>
         <v>-0.47903053024873976</v>
       </c>
     </row>
@@ -8474,27 +8474,27 @@
         <v>905.44955233676205</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E153,$C153)</f>
         <v>942</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F153,$C153*0.9)</f>
         <v>905.44955233676205</v>
       </c>
       <c r="I153" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F153,$C153*0.95)</f>
         <v>905.44955233676205</v>
       </c>
       <c r="K153" s="3">
-        <f t="shared" si="17"/>
+        <f>H153-$C153</f>
         <v>-36.550447663237946</v>
       </c>
       <c r="L153" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K153)</f>
         <v>36.550447663237946</v>
       </c>
       <c r="M153" s="4">
-        <f t="shared" si="16"/>
+        <f>(H153-$O$2)/$O$3</f>
         <v>-0.48072746072098327</v>
       </c>
     </row>
@@ -8518,27 +8518,27 @@
         <v>901.91137446463699</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E154,$C154)</f>
         <v>996</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F154,$C154*0.9)</f>
         <v>901.91137446463699</v>
       </c>
       <c r="I154" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F154,$C154*0.95)</f>
         <v>946.19999999999993</v>
       </c>
       <c r="K154" s="3">
-        <f t="shared" si="17"/>
+        <f>H154-$C154</f>
         <v>-94.088625535363008</v>
       </c>
       <c r="L154" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K154)</f>
         <v>94.088625535363008</v>
       </c>
       <c r="M154" s="4">
-        <f t="shared" si="16"/>
+        <f>(H154-$O$2)/$O$3</f>
         <v>-0.493000019707802</v>
       </c>
     </row>
@@ -8562,27 +8562,27 @@
         <v>901.43423974990799</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E155,$C155)</f>
         <v>906</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F155,$C155*0.9)</f>
         <v>901.43423974990799</v>
       </c>
       <c r="I155" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F155,$C155*0.95)</f>
         <v>901.43423974990799</v>
       </c>
       <c r="K155" s="3">
-        <f t="shared" si="17"/>
+        <f>H155-$C155</f>
         <v>-4.565760250092012</v>
       </c>
       <c r="L155" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K155)</f>
         <v>4.565760250092012</v>
       </c>
       <c r="M155" s="4">
-        <f t="shared" si="16"/>
+        <f>(H155-$O$2)/$O$3</f>
         <v>-0.49465501392878325</v>
       </c>
     </row>
@@ -8606,27 +8606,27 @@
         <v>885.11814439233603</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E156,$C156)</f>
         <v>1000</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F156,$C156*0.9)</f>
         <v>900</v>
       </c>
       <c r="I156" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F156,$C156*0.95)</f>
         <v>950</v>
       </c>
       <c r="K156" s="3">
-        <f t="shared" si="17"/>
+        <f>H156-$C156</f>
         <v>-100</v>
       </c>
       <c r="L156" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K156)</f>
         <v>100</v>
       </c>
       <c r="M156" s="4">
-        <f t="shared" si="16"/>
+        <f>(H156-$O$2)/$O$3</f>
         <v>-0.49962983220195678</v>
       </c>
     </row>
@@ -8650,27 +8650,27 @@
         <v>894.89880421690202</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E157,$C157)</f>
         <v>958</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F157,$C157*0.9)</f>
         <v>894.89880421690202</v>
       </c>
       <c r="I157" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F157,$C157*0.95)</f>
         <v>910.09999999999991</v>
       </c>
       <c r="K157" s="3">
-        <f t="shared" si="17"/>
+        <f>H157-$C157</f>
         <v>-63.101195783097978</v>
       </c>
       <c r="L157" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K157)</f>
         <v>63.101195783097978</v>
       </c>
       <c r="M157" s="4">
-        <f t="shared" si="16"/>
+        <f>(H157-$O$2)/$O$3</f>
         <v>-0.51732389067329643</v>
       </c>
     </row>
@@ -8694,27 +8694,27 @@
         <v>882.840702514236</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E158,$C158)</f>
         <v>882.840702514236</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F158,$C158*0.9)</f>
         <v>882.840702514236</v>
       </c>
       <c r="I158" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F158,$C158*0.95)</f>
         <v>882.840702514236</v>
       </c>
       <c r="K158" s="3">
-        <f t="shared" si="17"/>
+        <f>H158-$C158</f>
         <v>148.840702514236</v>
       </c>
       <c r="L158" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K158)</f>
         <v>148.840702514236</v>
       </c>
       <c r="M158" s="4">
-        <f t="shared" si="16"/>
+        <f>(H158-$O$2)/$O$3</f>
         <v>-0.55914874226735956</v>
       </c>
     </row>
@@ -8738,27 +8738,27 @@
         <v>882.81011280876305</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E159,$C159)</f>
         <v>882.81011280876305</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F159,$C159*0.9)</f>
         <v>882.81011280876305</v>
       </c>
       <c r="I159" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F159,$C159*0.95)</f>
         <v>882.81011280876305</v>
       </c>
       <c r="K159" s="3">
-        <f t="shared" si="17"/>
+        <f>H159-$C159</f>
         <v>4.8101128087630514</v>
       </c>
       <c r="L159" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K159)</f>
         <v>4.8101128087630514</v>
       </c>
       <c r="M159" s="4">
-        <f t="shared" si="16"/>
+        <f>(H159-$O$2)/$O$3</f>
         <v>-0.55925484602425768</v>
       </c>
     </row>
@@ -8782,27 +8782,27 @@
         <v>865.438877313989</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E160,$C160)</f>
         <v>977</v>
       </c>
       <c r="H160" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F160,$C160*0.9)</f>
         <v>879.30000000000007</v>
       </c>
       <c r="I160" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F160,$C160*0.95)</f>
         <v>928.15</v>
       </c>
       <c r="K160" s="3">
-        <f t="shared" si="17"/>
+        <f>H160-$C160</f>
         <v>-97.699999999999932</v>
       </c>
       <c r="L160" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K160)</f>
         <v>97.699999999999932</v>
       </c>
       <c r="M160" s="4">
-        <f t="shared" si="16"/>
+        <f>(H160-$O$2)/$O$3</f>
         <v>-0.5714300582529348</v>
       </c>
     </row>
@@ -8826,27 +8826,27 @@
         <v>877.21319529828702</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E161,$C161)</f>
         <v>964</v>
       </c>
       <c r="H161" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F161,$C161*0.9)</f>
         <v>877.21319529828702</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F161,$C161*0.95)</f>
         <v>915.8</v>
       </c>
       <c r="K161" s="3">
-        <f t="shared" si="17"/>
+        <f>H161-$C161</f>
         <v>-86.786804701712981</v>
       </c>
       <c r="L161" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K161)</f>
         <v>86.786804701712981</v>
       </c>
       <c r="M161" s="4">
-        <f t="shared" si="16"/>
+        <f>(H161-$O$2)/$O$3</f>
         <v>-0.57866836981367109</v>
       </c>
     </row>
@@ -8870,27 +8870,27 @@
         <v>875.760372793192</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E162,$C162)</f>
         <v>899</v>
       </c>
       <c r="H162" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F162,$C162*0.9)</f>
         <v>875.760372793192</v>
       </c>
       <c r="I162" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F162,$C162*0.95)</f>
         <v>875.760372793192</v>
       </c>
       <c r="K162" s="3">
-        <f t="shared" si="17"/>
+        <f>H162-$C162</f>
         <v>-23.239627206807995</v>
       </c>
       <c r="L162" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K162)</f>
         <v>23.239627206807995</v>
       </c>
       <c r="M162" s="4">
-        <f t="shared" si="16"/>
+        <f>(H162-$O$2)/$O$3</f>
         <v>-0.58370764441646195</v>
       </c>
     </row>
@@ -8914,27 +8914,27 @@
         <v>875.72570887654899</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E163,$C163)</f>
         <v>875.72570887654899</v>
       </c>
       <c r="H163" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F163,$C163*0.9)</f>
         <v>875.72570887654899</v>
       </c>
       <c r="I163" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F163,$C163*0.95)</f>
         <v>875.72570887654899</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="17"/>
+        <f>H163-$C163</f>
         <v>93.725708876548993</v>
       </c>
       <c r="L163" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K163)</f>
         <v>93.725708876548993</v>
       </c>
       <c r="M163" s="4">
-        <f t="shared" si="16"/>
+        <f>(H163-$O$2)/$O$3</f>
         <v>-0.58382788002277985</v>
       </c>
     </row>
@@ -8958,27 +8958,27 @@
         <v>874.17042714488696</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E164,$C164)</f>
         <v>874.17042714488696</v>
       </c>
       <c r="H164" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F164,$C164*0.9)</f>
         <v>874.17042714488696</v>
       </c>
       <c r="I164" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F164,$C164*0.95)</f>
         <v>874.17042714488696</v>
       </c>
       <c r="K164" s="3">
-        <f t="shared" si="17"/>
+        <f>H164-$C164</f>
         <v>198.17042714488696</v>
       </c>
       <c r="L164" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K164)</f>
         <v>198.17042714488696</v>
       </c>
       <c r="M164" s="4">
-        <f t="shared" si="16"/>
+        <f>(H164-$O$2)/$O$3</f>
         <v>-0.58922254571873589</v>
       </c>
     </row>
@@ -9002,27 +9002,27 @@
         <v>863.826617149904</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E165,$C165)</f>
         <v>863.826617149904</v>
       </c>
       <c r="H165" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F165,$C165*0.9)</f>
         <v>863.826617149904</v>
       </c>
       <c r="I165" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F165,$C165*0.95)</f>
         <v>863.826617149904</v>
       </c>
       <c r="K165" s="3">
-        <f t="shared" si="17"/>
+        <f>H165-$C165</f>
         <v>40.826617149903996</v>
       </c>
       <c r="L165" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K165)</f>
         <v>40.826617149903996</v>
       </c>
       <c r="M165" s="4">
-        <f t="shared" si="16"/>
+        <f>(H165-$O$2)/$O$3</f>
         <v>-0.62510118803120673</v>
       </c>
     </row>
@@ -9046,27 +9046,27 @@
         <v>863.10275893320704</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E166,$C166)</f>
         <v>871</v>
       </c>
       <c r="H166" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F166,$C166*0.9)</f>
         <v>863.10275893320704</v>
       </c>
       <c r="I166" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F166,$C166*0.95)</f>
         <v>863.10275893320704</v>
       </c>
       <c r="K166" s="3">
-        <f t="shared" si="17"/>
+        <f>H166-$C166</f>
         <v>-7.897241066792958</v>
       </c>
       <c r="L166" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K166)</f>
         <v>7.897241066792958</v>
       </c>
       <c r="M166" s="4">
-        <f t="shared" si="16"/>
+        <f>(H166-$O$2)/$O$3</f>
         <v>-0.6276119698470376</v>
       </c>
     </row>
@@ -9090,27 +9090,27 @@
         <v>856.11906759270403</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E167,$C167)</f>
         <v>916</v>
       </c>
       <c r="H167" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F167,$C167*0.9)</f>
         <v>856.11906759270403</v>
       </c>
       <c r="I167" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F167,$C167*0.95)</f>
         <v>870.19999999999993</v>
       </c>
       <c r="K167" s="3">
-        <f t="shared" si="17"/>
+        <f>H167-$C167</f>
         <v>-59.880932407295973</v>
       </c>
       <c r="L167" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K167)</f>
         <v>59.880932407295973</v>
       </c>
       <c r="M167" s="4">
-        <f t="shared" si="16"/>
+        <f>(H167-$O$2)/$O$3</f>
         <v>-0.65183567114744223</v>
       </c>
     </row>
@@ -9134,27 +9134,27 @@
         <v>855.95513855802005</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E168,$C168)</f>
         <v>855.95513855802005</v>
       </c>
       <c r="H168" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F168,$C168*0.9)</f>
         <v>855.95513855802005</v>
       </c>
       <c r="I168" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F168,$C168*0.95)</f>
         <v>855.95513855802005</v>
       </c>
       <c r="K168" s="3">
-        <f t="shared" si="17"/>
+        <f>H168-$C168</f>
         <v>7.9551385580200531</v>
       </c>
       <c r="L168" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K168)</f>
         <v>7.9551385580200531</v>
       </c>
       <c r="M168" s="4">
-        <f t="shared" si="16"/>
+        <f>(H168-$O$2)/$O$3</f>
         <v>-0.65240427702892179</v>
       </c>
     </row>
@@ -9178,27 +9178,27 @@
         <v>849.66191557411298</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E169,$C169)</f>
         <v>892</v>
       </c>
       <c r="H169" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F169,$C169*0.9)</f>
         <v>849.66191557411298</v>
       </c>
       <c r="I169" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F169,$C169*0.95)</f>
         <v>849.66191557411298</v>
       </c>
       <c r="K169" s="3">
-        <f t="shared" si="17"/>
+        <f>H169-$C169</f>
         <v>-42.338084425887018</v>
       </c>
       <c r="L169" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K169)</f>
         <v>42.338084425887018</v>
       </c>
       <c r="M169" s="4">
-        <f t="shared" si="16"/>
+        <f>(H169-$O$2)/$O$3</f>
         <v>-0.67423301291460969</v>
       </c>
     </row>
@@ -9222,27 +9222,27 @@
         <v>847.71537212030705</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E170,$C170)</f>
         <v>847.71537212030705</v>
       </c>
       <c r="H170" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F170,$C170*0.9)</f>
         <v>847.71537212030705</v>
       </c>
       <c r="I170" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F170,$C170*0.95)</f>
         <v>847.71537212030705</v>
       </c>
       <c r="K170" s="3">
-        <f t="shared" si="17"/>
+        <f>H170-$C170</f>
         <v>8.7153721203070518</v>
       </c>
       <c r="L170" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K170)</f>
         <v>8.7153721203070518</v>
       </c>
       <c r="M170" s="4">
-        <f t="shared" si="16"/>
+        <f>(H170-$O$2)/$O$3</f>
         <v>-0.68098481291467339</v>
       </c>
     </row>
@@ -9266,27 +9266,27 @@
         <v>845.65270665496303</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E171,$C171)</f>
         <v>845.65270665496303</v>
       </c>
       <c r="H171" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F171,$C171*0.9)</f>
         <v>845.65270665496303</v>
       </c>
       <c r="I171" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F171,$C171*0.95)</f>
         <v>845.65270665496303</v>
       </c>
       <c r="K171" s="3">
-        <f t="shared" si="17"/>
+        <f>H171-$C171</f>
         <v>79.652706654963026</v>
       </c>
       <c r="L171" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K171)</f>
         <v>79.652706654963026</v>
       </c>
       <c r="M171" s="4">
-        <f t="shared" si="16"/>
+        <f>(H171-$O$2)/$O$3</f>
         <v>-0.68813939487985443</v>
       </c>
     </row>
@@ -9310,27 +9310,27 @@
         <v>845.39615407738995</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E172,$C172)</f>
         <v>845.39615407738995</v>
       </c>
       <c r="H172" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F172,$C172*0.9)</f>
         <v>845.39615407738995</v>
       </c>
       <c r="I172" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F172,$C172*0.95)</f>
         <v>845.39615407738995</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="17"/>
+        <f>H172-$C172</f>
         <v>151.39615407738995</v>
       </c>
       <c r="L172" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K172)</f>
         <v>151.39615407738995</v>
       </c>
       <c r="M172" s="4">
-        <f t="shared" si="16"/>
+        <f>(H172-$O$2)/$O$3</f>
         <v>-0.68902927570418815</v>
       </c>
     </row>
@@ -9354,27 +9354,27 @@
         <v>841.21504430779703</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E173,$C173)</f>
         <v>859</v>
       </c>
       <c r="H173" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F173,$C173*0.9)</f>
         <v>841.21504430779703</v>
       </c>
       <c r="I173" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F173,$C173*0.95)</f>
         <v>841.21504430779703</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="17"/>
+        <f>H173-$C173</f>
         <v>-17.784955692202971</v>
       </c>
       <c r="L173" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K173)</f>
         <v>17.784955692202971</v>
       </c>
       <c r="M173" s="4">
-        <f t="shared" si="16"/>
+        <f>(H173-$O$2)/$O$3</f>
         <v>-0.70353191467040677</v>
       </c>
     </row>
@@ -9398,27 +9398,27 @@
         <v>836.73611536623503</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E174,$C174)</f>
         <v>846</v>
       </c>
       <c r="H174" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F174,$C174*0.9)</f>
         <v>836.73611536623503</v>
       </c>
       <c r="I174" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F174,$C174*0.95)</f>
         <v>836.73611536623503</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="17"/>
+        <f>H174-$C174</f>
         <v>-9.2638846337649738</v>
       </c>
       <c r="L174" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K174)</f>
         <v>9.2638846337649738</v>
       </c>
       <c r="M174" s="4">
-        <f t="shared" si="16"/>
+        <f>(H174-$O$2)/$O$3</f>
         <v>-0.7190675721810551</v>
       </c>
     </row>
@@ -9442,27 +9442,27 @@
         <v>830.70754050762196</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E175,$C175)</f>
         <v>929</v>
       </c>
       <c r="H175" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F175,$C175*0.9)</f>
         <v>836.1</v>
       </c>
       <c r="I175" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F175,$C175*0.95)</f>
         <v>882.55</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="17"/>
+        <f>H175-$C175</f>
         <v>-92.899999999999977</v>
       </c>
       <c r="L175" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K175)</f>
         <v>92.899999999999977</v>
       </c>
       <c r="M175" s="4">
-        <f t="shared" si="16"/>
+        <f>(H175-$O$2)/$O$3</f>
         <v>-0.72127400827236787</v>
       </c>
     </row>
@@ -9486,27 +9486,27 @@
         <v>829.15704677973599</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E176,$C176)</f>
         <v>829.15704677973599</v>
       </c>
       <c r="H176" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F176,$C176*0.9)</f>
         <v>829.15704677973599</v>
       </c>
       <c r="I176" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F176,$C176*0.95)</f>
         <v>829.15704677973599</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="17"/>
+        <f>H176-$C176</f>
         <v>3.1570467797359925</v>
       </c>
       <c r="L176" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K176)</f>
         <v>3.1570467797359925</v>
       </c>
       <c r="M176" s="4">
-        <f t="shared" si="16"/>
+        <f>(H176-$O$2)/$O$3</f>
         <v>-0.74535640492339805</v>
       </c>
     </row>
@@ -9530,27 +9530,27 @@
         <v>825.60345963002896</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E177,$C177)</f>
         <v>825.60345963002896</v>
       </c>
       <c r="H177" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F177,$C177*0.9)</f>
         <v>825.60345963002896</v>
       </c>
       <c r="I177" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F177,$C177*0.95)</f>
         <v>825.60345963002896</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" si="17"/>
+        <f>H177-$C177</f>
         <v>203.60345963002896</v>
       </c>
       <c r="L177" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K177)</f>
         <v>203.60345963002896</v>
       </c>
       <c r="M177" s="4">
-        <f t="shared" si="16"/>
+        <f>(H177-$O$2)/$O$3</f>
         <v>-0.75768241268382386</v>
       </c>
     </row>
@@ -9574,27 +9574,27 @@
         <v>825.59506743297698</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E178,$C178)</f>
         <v>827</v>
       </c>
       <c r="H178" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F178,$C178*0.9)</f>
         <v>825.59506743297698</v>
       </c>
       <c r="I178" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F178,$C178*0.95)</f>
         <v>825.59506743297698</v>
       </c>
       <c r="K178" s="3">
-        <f t="shared" si="17"/>
+        <f>H178-$C178</f>
         <v>-1.4049325670230246</v>
       </c>
       <c r="L178" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K178)</f>
         <v>1.4049325670230246</v>
       </c>
       <c r="M178" s="4">
-        <f t="shared" si="16"/>
+        <f>(H178-$O$2)/$O$3</f>
         <v>-0.7577115219420556</v>
       </c>
     </row>
@@ -9618,27 +9618,27 @@
         <v>821.54499141487395</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E179,$C179)</f>
         <v>821.54499141487395</v>
       </c>
       <c r="H179" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F179,$C179*0.9)</f>
         <v>821.54499141487395</v>
       </c>
       <c r="I179" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F179,$C179*0.95)</f>
         <v>821.54499141487395</v>
       </c>
       <c r="K179" s="3">
-        <f t="shared" si="17"/>
+        <f>H179-$C179</f>
         <v>74.544991414873948</v>
       </c>
       <c r="L179" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K179)</f>
         <v>74.544991414873948</v>
       </c>
       <c r="M179" s="4">
-        <f t="shared" si="16"/>
+        <f>(H179-$O$2)/$O$3</f>
         <v>-0.77175965593352636</v>
       </c>
     </row>
@@ -9662,27 +9662,27 @@
         <v>818.76821436704699</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E180,$C180)</f>
         <v>818.76821436704699</v>
       </c>
       <c r="H180" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F180,$C180*0.9)</f>
         <v>818.76821436704699</v>
       </c>
       <c r="I180" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F180,$C180*0.95)</f>
         <v>818.76821436704699</v>
       </c>
       <c r="K180" s="3">
-        <f t="shared" si="17"/>
+        <f>H180-$C180</f>
         <v>63.768214367046994</v>
       </c>
       <c r="L180" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K180)</f>
         <v>63.768214367046994</v>
       </c>
       <c r="M180" s="4">
-        <f t="shared" si="16"/>
+        <f>(H180-$O$2)/$O$3</f>
         <v>-0.78139121244208398</v>
       </c>
     </row>
@@ -9706,27 +9706,27 @@
         <v>813.86180029989202</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E181,$C181)</f>
         <v>813.86180029989202</v>
       </c>
       <c r="H181" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F181,$C181*0.9)</f>
         <v>813.86180029989202</v>
       </c>
       <c r="I181" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F181,$C181*0.95)</f>
         <v>813.86180029989202</v>
       </c>
       <c r="K181" s="3">
-        <f t="shared" si="17"/>
+        <f>H181-$C181</f>
         <v>136.86180029989202</v>
       </c>
       <c r="L181" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K181)</f>
         <v>136.86180029989202</v>
       </c>
       <c r="M181" s="4">
-        <f t="shared" si="16"/>
+        <f>(H181-$O$2)/$O$3</f>
         <v>-0.79840964911461665</v>
       </c>
     </row>
@@ -9750,27 +9750,27 @@
         <v>806.18811137001705</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E182,$C182)</f>
         <v>806.18811137001705</v>
       </c>
       <c r="H182" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F182,$C182*0.9)</f>
         <v>806.18811137001705</v>
       </c>
       <c r="I182" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F182,$C182*0.95)</f>
         <v>806.18811137001705</v>
       </c>
       <c r="K182" s="3">
-        <f t="shared" si="17"/>
+        <f>H182-$C182</f>
         <v>111.18811137001705</v>
       </c>
       <c r="L182" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K182)</f>
         <v>111.18811137001705</v>
       </c>
       <c r="M182" s="4">
-        <f t="shared" si="16"/>
+        <f>(H182-$O$2)/$O$3</f>
         <v>-0.82502668292185877</v>
       </c>
     </row>
@@ -9794,27 +9794,27 @@
         <v>800.99602525176795</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E183,$C183)</f>
         <v>800.99602525176795</v>
       </c>
       <c r="H183" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F183,$C183*0.9)</f>
         <v>800.99602525176795</v>
       </c>
       <c r="I183" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F183,$C183*0.95)</f>
         <v>800.99602525176795</v>
       </c>
       <c r="K183" s="3">
-        <f t="shared" si="17"/>
+        <f>H183-$C183</f>
         <v>60.996025251767946</v>
       </c>
       <c r="L183" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K183)</f>
         <v>60.996025251767946</v>
       </c>
       <c r="M183" s="4">
-        <f t="shared" si="16"/>
+        <f>(H183-$O$2)/$O$3</f>
         <v>-0.84303600451444005</v>
       </c>
     </row>
@@ -9838,27 +9838,27 @@
         <v>790.81258632901097</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E184,$C184)</f>
         <v>790.81258632901097</v>
       </c>
       <c r="H184" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F184,$C184*0.9)</f>
         <v>790.81258632901097</v>
       </c>
       <c r="I184" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F184,$C184*0.95)</f>
         <v>790.81258632901097</v>
       </c>
       <c r="K184" s="3">
-        <f t="shared" si="17"/>
+        <f>H184-$C184</f>
         <v>115.81258632901097</v>
       </c>
       <c r="L184" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K184)</f>
         <v>115.81258632901097</v>
       </c>
       <c r="M184" s="4">
-        <f t="shared" si="16"/>
+        <f>(H184-$O$2)/$O$3</f>
         <v>-0.87835838212942952</v>
       </c>
     </row>
@@ -9882,27 +9882,27 @@
         <v>788.62709831304505</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E185,$C185)</f>
         <v>824</v>
       </c>
       <c r="H185" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F185,$C185*0.9)</f>
         <v>788.62709831304505</v>
       </c>
       <c r="I185" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F185,$C185*0.95)</f>
         <v>788.62709831304505</v>
       </c>
       <c r="K185" s="3">
-        <f t="shared" si="17"/>
+        <f>H185-$C185</f>
         <v>-35.372901686954947</v>
       </c>
       <c r="L185" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K185)</f>
         <v>35.372901686954947</v>
       </c>
       <c r="M185" s="4">
-        <f t="shared" si="16"/>
+        <f>(H185-$O$2)/$O$3</f>
         <v>-0.8859389876162922</v>
       </c>
     </row>
@@ -9926,27 +9926,27 @@
         <v>787.642860126242</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E186,$C186)</f>
         <v>787.642860126242</v>
       </c>
       <c r="H186" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F186,$C186*0.9)</f>
         <v>787.642860126242</v>
       </c>
       <c r="I186" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F186,$C186*0.95)</f>
         <v>787.642860126242</v>
       </c>
       <c r="K186" s="3">
-        <f t="shared" si="17"/>
+        <f>H186-$C186</f>
         <v>52.642860126241999</v>
       </c>
       <c r="L186" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K186)</f>
         <v>52.642860126241999</v>
       </c>
       <c r="M186" s="4">
-        <f t="shared" si="16"/>
+        <f>(H186-$O$2)/$O$3</f>
         <v>-0.8893529259882953</v>
       </c>
     </row>
@@ -9970,27 +9970,27 @@
         <v>786.68006495471195</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E187,$C187)</f>
         <v>786.68006495471195</v>
       </c>
       <c r="H187" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F187,$C187*0.9)</f>
         <v>786.68006495471195</v>
       </c>
       <c r="I187" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F187,$C187*0.95)</f>
         <v>786.68006495471195</v>
       </c>
       <c r="K187" s="3">
-        <f t="shared" si="17"/>
+        <f>H187-$C187</f>
         <v>1.6800649547119519</v>
       </c>
       <c r="L187" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K187)</f>
         <v>1.6800649547119519</v>
       </c>
       <c r="M187" s="4">
-        <f t="shared" si="16"/>
+        <f>(H187-$O$2)/$O$3</f>
         <v>-0.89269248690407532</v>
       </c>
     </row>
@@ -10014,27 +10014,27 @@
         <v>786.38164392170802</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E188,$C188)</f>
         <v>843</v>
       </c>
       <c r="H188" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F188,$C188*0.9)</f>
         <v>786.38164392170802</v>
       </c>
       <c r="I188" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F188,$C188*0.95)</f>
         <v>800.84999999999991</v>
       </c>
       <c r="K188" s="3">
-        <f t="shared" si="17"/>
+        <f>H188-$C188</f>
         <v>-56.618356078291981</v>
       </c>
       <c r="L188" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K188)</f>
         <v>56.618356078291981</v>
       </c>
       <c r="M188" s="4">
-        <f t="shared" si="16"/>
+        <f>(H188-$O$2)/$O$3</f>
         <v>-0.89372759306968153</v>
       </c>
     </row>
@@ -10058,27 +10058,27 @@
         <v>784.794965618015</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E189,$C189)</f>
         <v>784.794965618015</v>
       </c>
       <c r="H189" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F189,$C189*0.9)</f>
         <v>784.794965618015</v>
       </c>
       <c r="I189" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F189,$C189*0.95)</f>
         <v>784.794965618015</v>
       </c>
       <c r="K189" s="3">
-        <f t="shared" si="17"/>
+        <f>H189-$C189</f>
         <v>4.7949656180149987</v>
       </c>
       <c r="L189" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K189)</f>
         <v>4.7949656180149987</v>
       </c>
       <c r="M189" s="4">
-        <f t="shared" si="16"/>
+        <f>(H189-$O$2)/$O$3</f>
         <v>-0.89923116122791058</v>
       </c>
     </row>
@@ -10102,27 +10102,27 @@
         <v>778.971193254171</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E190,$C190)</f>
         <v>782</v>
       </c>
       <c r="H190" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F190,$C190*0.9)</f>
         <v>778.971193254171</v>
       </c>
       <c r="I190" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F190,$C190*0.95)</f>
         <v>778.971193254171</v>
       </c>
       <c r="K190" s="3">
-        <f t="shared" si="17"/>
+        <f>H190-$C190</f>
         <v>-3.0288067458290016</v>
       </c>
       <c r="L190" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K190)</f>
         <v>3.0288067458290016</v>
       </c>
       <c r="M190" s="4">
-        <f t="shared" si="16"/>
+        <f>(H190-$O$2)/$O$3</f>
         <v>-0.91943155601986426</v>
       </c>
     </row>
@@ -10146,27 +10146,27 @@
         <v>778.01647830837499</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E191,$C191)</f>
         <v>778.01647830837499</v>
       </c>
       <c r="H191" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F191,$C191*0.9)</f>
         <v>778.01647830837499</v>
       </c>
       <c r="I191" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F191,$C191*0.95)</f>
         <v>778.01647830837499</v>
       </c>
       <c r="K191" s="3">
-        <f t="shared" si="17"/>
+        <f>H191-$C191</f>
         <v>231.01647830837499</v>
       </c>
       <c r="L191" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K191)</f>
         <v>231.01647830837499</v>
       </c>
       <c r="M191" s="4">
-        <f t="shared" si="16"/>
+        <f>(H191-$O$2)/$O$3</f>
         <v>-0.92274308978423136</v>
       </c>
     </row>
@@ -10190,27 +10190,27 @@
         <v>774.39640294029505</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E192,$C192)</f>
         <v>821</v>
       </c>
       <c r="H192" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F192,$C192*0.9)</f>
         <v>774.39640294029505</v>
       </c>
       <c r="I192" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F192,$C192*0.95)</f>
         <v>779.94999999999993</v>
       </c>
       <c r="K192" s="3">
-        <f t="shared" si="17"/>
+        <f>H192-$C192</f>
         <v>-46.603597059704953</v>
       </c>
       <c r="L192" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K192)</f>
         <v>46.603597059704953</v>
       </c>
       <c r="M192" s="4">
-        <f t="shared" si="16"/>
+        <f>(H192-$O$2)/$O$3</f>
         <v>-0.93529971924073951</v>
       </c>
     </row>
@@ -10234,27 +10234,27 @@
         <v>772.041735281711</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="12"/>
+        <f>MAX(E193,$C193)</f>
         <v>802</v>
       </c>
       <c r="H193" s="12">
-        <f t="shared" si="13"/>
+        <f>MAX(F193,$C193*0.9)</f>
         <v>772.041735281711</v>
       </c>
       <c r="I193" s="5">
-        <f t="shared" si="14"/>
+        <f>MAX(F193,$C193*0.95)</f>
         <v>772.041735281711</v>
       </c>
       <c r="K193" s="3">
-        <f t="shared" si="17"/>
+        <f>H193-$C193</f>
         <v>-29.958264718289001</v>
       </c>
       <c r="L193" s="3">
-        <f t="shared" si="15"/>
+        <f>ABS(K193)</f>
         <v>29.958264718289001</v>
       </c>
       <c r="M193" s="4">
-        <f t="shared" si="16"/>
+        <f>(H193-$O$2)/$O$3</f>
         <v>-0.94346714292002753</v>
       </c>
     </row>
@@ -10278,27 +10278,27 @@
         <v>707.59681502164995</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" ref="G194:G222" si="18">MAX(E194,$C194)</f>
+        <f>MAX(E194,$C194)</f>
         <v>856</v>
       </c>
       <c r="H194" s="12">
-        <f t="shared" ref="H194:H222" si="19">MAX(F194,$C194*0.9)</f>
+        <f>MAX(F194,$C194*0.9)</f>
         <v>770.4</v>
       </c>
       <c r="I194" s="5">
-        <f t="shared" ref="I194:I222" si="20">MAX(F194,$C194*0.95)</f>
+        <f>MAX(F194,$C194*0.95)</f>
         <v>813.19999999999993</v>
       </c>
       <c r="K194" s="3">
-        <f t="shared" si="17"/>
+        <f>H194-$C194</f>
         <v>-85.600000000000023</v>
       </c>
       <c r="L194" s="3">
-        <f t="shared" ref="L194:L257" si="21">ABS(K194)</f>
+        <f>ABS(K194)</f>
         <v>85.600000000000023</v>
       </c>
       <c r="M194" s="4">
-        <f t="shared" ref="M194:M222" si="22">(H194-$O$2)/$O$3</f>
+        <f>(H194-$O$2)/$O$3</f>
         <v>-0.94916168226025543</v>
       </c>
     </row>
@@ -10322,27 +10322,27 @@
         <v>765.68645750657697</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E195,$C195)</f>
         <v>787</v>
       </c>
       <c r="H195" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F195,$C195*0.9)</f>
         <v>765.68645750657697</v>
       </c>
       <c r="I195" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F195,$C195*0.95)</f>
         <v>765.68645750657697</v>
       </c>
       <c r="K195" s="3">
-        <f t="shared" ref="K195:K222" si="23">H195-$C195</f>
+        <f>H195-$C195</f>
         <v>-21.313542493423029</v>
       </c>
       <c r="L195" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K195)</f>
         <v>21.313542493423029</v>
       </c>
       <c r="M195" s="4">
-        <f t="shared" si="22"/>
+        <f>(H195-$O$2)/$O$3</f>
         <v>-0.96551112267226824</v>
       </c>
     </row>
@@ -10366,27 +10366,27 @@
         <v>764.24512500355797</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E196,$C196)</f>
         <v>800</v>
       </c>
       <c r="H196" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F196,$C196*0.9)</f>
         <v>764.24512500355797</v>
       </c>
       <c r="I196" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F196,$C196*0.95)</f>
         <v>764.24512500355797</v>
       </c>
       <c r="K196" s="3">
-        <f t="shared" si="23"/>
+        <f>H196-$C196</f>
         <v>-35.754874996442027</v>
       </c>
       <c r="L196" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K196)</f>
         <v>35.754874996442027</v>
       </c>
       <c r="M196" s="4">
-        <f t="shared" si="22"/>
+        <f>(H196-$O$2)/$O$3</f>
         <v>-0.97051054293948491</v>
       </c>
     </row>
@@ -10410,27 +10410,27 @@
         <v>762.62029786116705</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E197,$C197)</f>
         <v>762.62029786116705</v>
       </c>
       <c r="H197" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F197,$C197*0.9)</f>
         <v>762.62029786116705</v>
       </c>
       <c r="I197" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F197,$C197*0.95)</f>
         <v>762.62029786116705</v>
       </c>
       <c r="K197" s="3">
-        <f t="shared" si="23"/>
+        <f>H197-$C197</f>
         <v>24.620297861167046</v>
       </c>
       <c r="L197" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K197)</f>
         <v>24.620297861167046</v>
       </c>
       <c r="M197" s="4">
-        <f t="shared" si="22"/>
+        <f>(H197-$O$2)/$O$3</f>
         <v>-0.9761464345393609</v>
       </c>
     </row>
@@ -10454,27 +10454,27 @@
         <v>668.44141394281405</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E198,$C198)</f>
         <v>842</v>
       </c>
       <c r="H198" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F198,$C198*0.9)</f>
         <v>757.80000000000007</v>
       </c>
       <c r="I198" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F198,$C198*0.95)</f>
         <v>799.9</v>
       </c>
       <c r="K198" s="3">
-        <f t="shared" si="23"/>
+        <f>H198-$C198</f>
         <v>-84.199999999999932</v>
       </c>
       <c r="L198" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K198)</f>
         <v>84.199999999999932</v>
       </c>
       <c r="M198" s="4">
-        <f t="shared" si="22"/>
+        <f>(H198-$O$2)/$O$3</f>
         <v>-0.99286616768258973</v>
       </c>
     </row>
@@ -10498,27 +10498,27 @@
         <v>738.35818764422299</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E199,$C199)</f>
         <v>738.35818764422299</v>
       </c>
       <c r="H199" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F199,$C199*0.9)</f>
         <v>738.35818764422299</v>
       </c>
       <c r="I199" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F199,$C199*0.95)</f>
         <v>738.35818764422299</v>
       </c>
       <c r="K199" s="3">
-        <f t="shared" si="23"/>
+        <f>H199-$C199</f>
         <v>48.358187644222994</v>
       </c>
       <c r="L199" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K199)</f>
         <v>48.358187644222994</v>
       </c>
       <c r="M199" s="4">
-        <f t="shared" si="22"/>
+        <f>(H199-$O$2)/$O$3</f>
         <v>-1.0603022315466233</v>
       </c>
     </row>
@@ -10542,27 +10542,27 @@
         <v>737.36807613276403</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E200,$C200)</f>
         <v>737.36807613276403</v>
       </c>
       <c r="H200" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F200,$C200*0.9)</f>
         <v>737.36807613276403</v>
       </c>
       <c r="I200" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F200,$C200*0.95)</f>
         <v>737.36807613276403</v>
       </c>
       <c r="K200" s="3">
-        <f t="shared" si="23"/>
+        <f>H200-$C200</f>
         <v>427.36807613276403</v>
       </c>
       <c r="L200" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K200)</f>
         <v>427.36807613276403</v>
       </c>
       <c r="M200" s="4">
-        <f t="shared" si="22"/>
+        <f>(H200-$O$2)/$O$3</f>
         <v>-1.0637365421909919</v>
       </c>
     </row>
@@ -10586,27 +10586,27 @@
         <v>735.14126145676801</v>
       </c>
       <c r="G201" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E201,$C201)</f>
         <v>735.14126145676801</v>
       </c>
       <c r="H201" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F201,$C201*0.9)</f>
         <v>735.14126145676801</v>
       </c>
       <c r="I201" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F201,$C201*0.95)</f>
         <v>735.14126145676801</v>
       </c>
       <c r="K201" s="3">
-        <f t="shared" si="23"/>
+        <f>H201-$C201</f>
         <v>38.141261456768007</v>
       </c>
       <c r="L201" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K201)</f>
         <v>38.141261456768007</v>
       </c>
       <c r="M201" s="4">
-        <f t="shared" si="22"/>
+        <f>(H201-$O$2)/$O$3</f>
         <v>-1.071460493742207</v>
       </c>
     </row>
@@ -10630,27 +10630,27 @@
         <v>733.09402675385297</v>
       </c>
       <c r="G202" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E202,$C202)</f>
         <v>781</v>
       </c>
       <c r="H202" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F202,$C202*0.9)</f>
         <v>733.09402675385297</v>
       </c>
       <c r="I202" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F202,$C202*0.95)</f>
         <v>741.94999999999993</v>
       </c>
       <c r="K202" s="3">
-        <f t="shared" si="23"/>
+        <f>H202-$C202</f>
         <v>-47.905973246147028</v>
       </c>
       <c r="L202" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K202)</f>
         <v>47.905973246147028</v>
       </c>
       <c r="M202" s="4">
-        <f t="shared" si="22"/>
+        <f>(H202-$O$2)/$O$3</f>
         <v>-1.0785615524112266</v>
       </c>
     </row>
@@ -10674,27 +10674,27 @@
         <v>728.66656999777001</v>
       </c>
       <c r="G203" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E203,$C203)</f>
         <v>728.66656999777001</v>
       </c>
       <c r="H203" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F203,$C203*0.9)</f>
         <v>728.66656999777001</v>
       </c>
       <c r="I203" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F203,$C203*0.95)</f>
         <v>728.66656999777001</v>
       </c>
       <c r="K203" s="3">
-        <f t="shared" si="23"/>
+        <f>H203-$C203</f>
         <v>33.666569997770011</v>
       </c>
       <c r="L203" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K203)</f>
         <v>33.666569997770011</v>
       </c>
       <c r="M203" s="4">
-        <f t="shared" si="22"/>
+        <f>(H203-$O$2)/$O$3</f>
         <v>-1.0939186729869603</v>
       </c>
     </row>
@@ -10718,27 +10718,27 @@
         <v>718.232330876883</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E204,$C204)</f>
         <v>731</v>
       </c>
       <c r="H204" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F204,$C204*0.9)</f>
         <v>718.232330876883</v>
       </c>
       <c r="I204" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F204,$C204*0.95)</f>
         <v>718.232330876883</v>
       </c>
       <c r="K204" s="3">
-        <f t="shared" si="23"/>
+        <f>H204-$C204</f>
         <v>-12.767669123117003</v>
       </c>
       <c r="L204" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K204)</f>
         <v>12.767669123117003</v>
       </c>
       <c r="M204" s="4">
-        <f t="shared" si="22"/>
+        <f>(H204-$O$2)/$O$3</f>
         <v>-1.1301109786656873</v>
       </c>
     </row>
@@ -10762,27 +10762,27 @@
         <v>710.58055302134005</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E205,$C205)</f>
         <v>710.58055302134005</v>
       </c>
       <c r="H205" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F205,$C205*0.9)</f>
         <v>710.58055302134005</v>
       </c>
       <c r="I205" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F205,$C205*0.95)</f>
         <v>710.58055302134005</v>
       </c>
       <c r="K205" s="3">
-        <f t="shared" si="23"/>
+        <f>H205-$C205</f>
         <v>186.58055302134005</v>
       </c>
       <c r="L205" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K205)</f>
         <v>186.58055302134005</v>
       </c>
       <c r="M205" s="4">
-        <f t="shared" si="22"/>
+        <f>(H205-$O$2)/$O$3</f>
         <v>-1.156652011502395</v>
       </c>
     </row>
@@ -10806,27 +10806,27 @@
         <v>705.14106446028404</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E206,$C206)</f>
         <v>731</v>
       </c>
       <c r="H206" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F206,$C206*0.9)</f>
         <v>705.14106446028404</v>
       </c>
       <c r="I206" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F206,$C206*0.95)</f>
         <v>705.14106446028404</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="23"/>
+        <f>H206-$C206</f>
         <v>-25.858935539715958</v>
       </c>
       <c r="L206" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K206)</f>
         <v>25.858935539715958</v>
       </c>
       <c r="M206" s="4">
-        <f t="shared" si="22"/>
+        <f>(H206-$O$2)/$O$3</f>
         <v>-1.1755194756707783</v>
       </c>
     </row>
@@ -10850,27 +10850,27 @@
         <v>689.86485281243699</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E207,$C207)</f>
         <v>712</v>
       </c>
       <c r="H207" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F207,$C207*0.9)</f>
         <v>689.86485281243699</v>
       </c>
       <c r="I207" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F207,$C207*0.95)</f>
         <v>689.86485281243699</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="23"/>
+        <f>H207-$C207</f>
         <v>-22.135147187563007</v>
       </c>
       <c r="L207" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K207)</f>
         <v>22.135147187563007</v>
       </c>
       <c r="M207" s="4">
-        <f t="shared" si="22"/>
+        <f>(H207-$O$2)/$O$3</f>
         <v>-1.2285066954542567</v>
       </c>
     </row>
@@ -10894,27 +10894,27 @@
         <v>675.24351339747398</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E208,$C208)</f>
         <v>675.24351339747398</v>
       </c>
       <c r="H208" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F208,$C208*0.9)</f>
         <v>675.24351339747398</v>
       </c>
       <c r="I208" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F208,$C208*0.95)</f>
         <v>675.24351339747398</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="23"/>
+        <f>H208-$C208</f>
         <v>94.243513397473976</v>
       </c>
       <c r="L208" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K208)</f>
         <v>94.243513397473976</v>
       </c>
       <c r="M208" s="4">
-        <f t="shared" si="22"/>
+        <f>(H208-$O$2)/$O$3</f>
         <v>-1.2792224188920549</v>
       </c>
     </row>
@@ -10938,27 +10938,27 @@
         <v>660.94019371686602</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E209,$C209)</f>
         <v>660.94019371686602</v>
       </c>
       <c r="H209" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F209,$C209*0.9)</f>
         <v>660.94019371686602</v>
       </c>
       <c r="I209" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F209,$C209*0.95)</f>
         <v>660.94019371686602</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="23"/>
+        <f>H209-$C209</f>
         <v>45.94019371686602</v>
       </c>
       <c r="L209" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K209)</f>
         <v>45.94019371686602</v>
       </c>
       <c r="M209" s="4">
-        <f t="shared" si="22"/>
+        <f>(H209-$O$2)/$O$3</f>
         <v>-1.3288350559136519</v>
       </c>
     </row>
@@ -10982,27 +10982,27 @@
         <v>632.33499745520601</v>
       </c>
       <c r="G210" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E210,$C210)</f>
         <v>632.33499745520601</v>
       </c>
       <c r="H210" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F210,$C210*0.9)</f>
         <v>632.33499745520601</v>
       </c>
       <c r="I210" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F210,$C210*0.95)</f>
         <v>632.33499745520601</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="23"/>
+        <f>H210-$C210</f>
         <v>299.33499745520601</v>
       </c>
       <c r="L210" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K210)</f>
         <v>299.33499745520601</v>
       </c>
       <c r="M210" s="4">
-        <f t="shared" si="22"/>
+        <f>(H210-$O$2)/$O$3</f>
         <v>-1.4280553244073615</v>
       </c>
     </row>
@@ -11026,27 +11026,27 @@
         <v>631.88972645883405</v>
       </c>
       <c r="G211" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E211,$C211)</f>
         <v>631.88972645883405</v>
       </c>
       <c r="H211" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F211,$C211*0.9)</f>
         <v>631.88972645883405</v>
       </c>
       <c r="I211" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F211,$C211*0.95)</f>
         <v>631.88972645883405</v>
       </c>
       <c r="K211" s="3">
-        <f t="shared" si="23"/>
+        <f>H211-$C211</f>
         <v>54.889726458834048</v>
       </c>
       <c r="L211" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K211)</f>
         <v>54.889726458834048</v>
       </c>
       <c r="M211" s="4">
-        <f t="shared" si="22"/>
+        <f>(H211-$O$2)/$O$3</f>
         <v>-1.4295997958176732</v>
       </c>
     </row>
@@ -11070,27 +11070,27 @@
         <v>589.76753612975403</v>
       </c>
       <c r="G212" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E212,$C212)</f>
         <v>594</v>
       </c>
       <c r="H212" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F212,$C212*0.9)</f>
         <v>589.76753612975403</v>
       </c>
       <c r="I212" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F212,$C212*0.95)</f>
         <v>589.76753612975403</v>
       </c>
       <c r="K212" s="3">
-        <f t="shared" si="23"/>
+        <f>H212-$C212</f>
         <v>-4.2324638702459652</v>
       </c>
       <c r="L212" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K212)</f>
         <v>4.2324638702459652</v>
       </c>
       <c r="M212" s="4">
-        <f t="shared" si="22"/>
+        <f>(H212-$O$2)/$O$3</f>
         <v>-1.5757052444838699</v>
       </c>
     </row>
@@ -11114,27 +11114,27 @@
         <v>583.97333751969904</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E213,$C213)</f>
         <v>609</v>
       </c>
       <c r="H213" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F213,$C213*0.9)</f>
         <v>583.97333751969904</v>
       </c>
       <c r="I213" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F213,$C213*0.95)</f>
         <v>583.97333751969904</v>
       </c>
       <c r="K213" s="3">
-        <f t="shared" si="23"/>
+        <f>H213-$C213</f>
         <v>-25.026662480300956</v>
       </c>
       <c r="L213" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K213)</f>
         <v>25.026662480300956</v>
       </c>
       <c r="M213" s="4">
-        <f t="shared" si="22"/>
+        <f>(H213-$O$2)/$O$3</f>
         <v>-1.5958030594590493</v>
       </c>
     </row>
@@ -11158,27 +11158,27 @@
         <v>580.35971907470298</v>
       </c>
       <c r="G214" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E214,$C214)</f>
         <v>580.35971907470298</v>
       </c>
       <c r="H214" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F214,$C214*0.9)</f>
         <v>580.35971907470298</v>
       </c>
       <c r="I214" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F214,$C214*0.95)</f>
         <v>580.35971907470298</v>
       </c>
       <c r="K214" s="3">
-        <f t="shared" si="23"/>
+        <f>H214-$C214</f>
         <v>27.35971907470298</v>
       </c>
       <c r="L214" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K214)</f>
         <v>27.35971907470298</v>
       </c>
       <c r="M214" s="4">
-        <f t="shared" si="22"/>
+        <f>(H214-$O$2)/$O$3</f>
         <v>-1.6083372923678756</v>
       </c>
     </row>
@@ -11202,27 +11202,27 @@
         <v>574.43919542815604</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E215,$C215)</f>
         <v>592</v>
       </c>
       <c r="H215" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F215,$C215*0.9)</f>
         <v>574.43919542815604</v>
       </c>
       <c r="I215" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F215,$C215*0.95)</f>
         <v>574.43919542815604</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="23"/>
+        <f>H215-$C215</f>
         <v>-17.56080457184396</v>
       </c>
       <c r="L215" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K215)</f>
         <v>17.56080457184396</v>
       </c>
       <c r="M215" s="4">
-        <f t="shared" si="22"/>
+        <f>(H215-$O$2)/$O$3</f>
         <v>-1.6288732796220897</v>
       </c>
     </row>
@@ -11246,27 +11246,27 @@
         <v>518.70961604593901</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E216,$C216)</f>
         <v>518.70961604593901</v>
       </c>
       <c r="H216" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F216,$C216*0.9)</f>
         <v>518.70961604593901</v>
       </c>
       <c r="I216" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F216,$C216*0.95)</f>
         <v>518.70961604593901</v>
       </c>
       <c r="K216" s="3">
-        <f t="shared" si="23"/>
+        <f>H216-$C216</f>
         <v>33.709616045939015</v>
       </c>
       <c r="L216" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K216)</f>
         <v>33.709616045939015</v>
       </c>
       <c r="M216" s="4">
-        <f t="shared" si="22"/>
+        <f>(H216-$O$2)/$O$3</f>
         <v>-1.8221774534080375</v>
       </c>
     </row>
@@ -11290,27 +11290,27 @@
         <v>451.52626803954598</v>
       </c>
       <c r="G217" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E217,$C217)</f>
         <v>451.52626803954598</v>
       </c>
       <c r="H217" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F217,$C217*0.9)</f>
         <v>451.52626803954598</v>
       </c>
       <c r="I217" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F217,$C217*0.95)</f>
         <v>451.52626803954598</v>
       </c>
       <c r="K217" s="3">
-        <f t="shared" si="23"/>
+        <f>H217-$C217</f>
         <v>157.52626803954598</v>
       </c>
       <c r="L217" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K217)</f>
         <v>157.52626803954598</v>
       </c>
       <c r="M217" s="4">
-        <f t="shared" si="22"/>
+        <f>(H217-$O$2)/$O$3</f>
         <v>-2.0552102830563732</v>
       </c>
     </row>
@@ -11334,27 +11334,27 @@
         <v>444.56998762760497</v>
       </c>
       <c r="G218" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E218,$C218)</f>
         <v>444.56998762760497</v>
       </c>
       <c r="H218" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F218,$C218*0.9)</f>
         <v>444.56998762760497</v>
       </c>
       <c r="I218" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F218,$C218*0.95)</f>
         <v>444.56998762760497</v>
       </c>
       <c r="K218" s="3">
-        <f t="shared" si="23"/>
+        <f>H218-$C218</f>
         <v>39.569987627604974</v>
       </c>
       <c r="L218" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K218)</f>
         <v>39.569987627604974</v>
       </c>
       <c r="M218" s="4">
-        <f t="shared" si="22"/>
+        <f>(H218-$O$2)/$O$3</f>
         <v>-2.0793389065371155</v>
       </c>
     </row>
@@ -11378,27 +11378,27 @@
         <v>439.29362119959001</v>
       </c>
       <c r="G219" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E219,$C219)</f>
         <v>439.29362119959001</v>
       </c>
       <c r="H219" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F219,$C219*0.9)</f>
         <v>439.29362119959001</v>
       </c>
       <c r="I219" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F219,$C219*0.95)</f>
         <v>439.29362119959001</v>
       </c>
       <c r="K219" s="3">
-        <f t="shared" si="23"/>
+        <f>H219-$C219</f>
         <v>117.29362119959001</v>
       </c>
       <c r="L219" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K219)</f>
         <v>117.29362119959001</v>
       </c>
       <c r="M219" s="4">
-        <f t="shared" si="22"/>
+        <f>(H219-$O$2)/$O$3</f>
         <v>-2.0976405636510895</v>
       </c>
     </row>
@@ -11422,27 +11422,27 @@
         <v>411.50396847963799</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E220,$C220)</f>
         <v>411.50396847963799</v>
       </c>
       <c r="H220" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F220,$C220*0.9)</f>
         <v>411.50396847963799</v>
       </c>
       <c r="I220" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F220,$C220*0.95)</f>
         <v>411.50396847963799</v>
       </c>
       <c r="K220" s="3">
-        <f t="shared" si="23"/>
+        <f>H220-$C220</f>
         <v>22.50396847963799</v>
       </c>
       <c r="L220" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K220)</f>
         <v>22.50396847963799</v>
       </c>
       <c r="M220" s="4">
-        <f t="shared" si="22"/>
+        <f>(H220-$O$2)/$O$3</f>
         <v>-2.1940320296979854</v>
       </c>
     </row>
@@ -11466,27 +11466,27 @@
         <v>387.00462404913998</v>
       </c>
       <c r="G221" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E221,$C221)</f>
         <v>387.00462404913998</v>
       </c>
       <c r="H221" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F221,$C221*0.9)</f>
         <v>387.00462404913998</v>
       </c>
       <c r="I221" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F221,$C221*0.95)</f>
         <v>387.00462404913998</v>
       </c>
       <c r="K221" s="3">
-        <f t="shared" si="23"/>
+        <f>H221-$C221</f>
         <v>80.004624049139977</v>
       </c>
       <c r="L221" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K221)</f>
         <v>80.004624049139977</v>
       </c>
       <c r="M221" s="4">
-        <f t="shared" si="22"/>
+        <f>(H221-$O$2)/$O$3</f>
         <v>-2.2790106996598469</v>
       </c>
     </row>
@@ -11510,27 +11510,27 @@
         <v>249.07668370386</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="18"/>
+        <f>MAX(E222,$C222)</f>
         <v>249.07668370386</v>
       </c>
       <c r="H222" s="12">
-        <f t="shared" si="19"/>
+        <f>MAX(F222,$C222*0.9)</f>
         <v>249.07668370386</v>
       </c>
       <c r="I222" s="5">
-        <f t="shared" si="20"/>
+        <f>MAX(F222,$C222*0.95)</f>
         <v>249.07668370386</v>
       </c>
       <c r="K222" s="3">
-        <f t="shared" si="23"/>
+        <f>H222-$C222</f>
         <v>88.076683703859999</v>
       </c>
       <c r="L222" s="3">
-        <f t="shared" si="21"/>
+        <f>ABS(K222)</f>
         <v>88.076683703859999</v>
       </c>
       <c r="M222" s="4">
-        <f t="shared" si="22"/>
+        <f>(H222-$O$2)/$O$3</f>
         <v>-2.7574289264973801</v>
       </c>
     </row>

--- a/go_post_s10_adjusted_ratings.xlsx
+++ b/go_post_s10_adjusted_ratings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stube/Documents/developer/GoBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA5247-F855-1D47-9677-809C38726C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E999BEB-C6EE-014C-B9F7-D4FA56A8D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="31840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="247">
   <si>
     <t>ign</t>
   </si>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>Z_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA4E7F1-9005-694F-9017-06451A505FAF}">
-  <dimension ref="A1:P222"/>
+  <dimension ref="A1:T222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2470,7 +2473,7 @@
         <v>1.6451931974644256</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>214</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>1.5421944747482916</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>90</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>1.5091334814500359</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>1.4938320601115691</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>143</v>
       </c>
@@ -2646,7 +2649,7 @@
         <v>1.486483172703071</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>213</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>1.3953104834346628</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>180</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>1.3778927238227572</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>1.3431348777366625</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>179</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>1.3402366191242443</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>155</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>1.3113436347656964</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>196</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>1.289621947542533</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>1.2564876443389041</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>198</v>
       </c>
@@ -2997,8 +3000,11 @@
         <f>(H28-$O$2)/$O$3</f>
         <v>1.2557911613179</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="T28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>217</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>1.2440421361933982</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>146</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>1.150443855172433</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>192</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>1.0622724976281408</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>229</v>
       </c>
